--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C229A8-386C-43FB-A2EB-D7C9B7DF9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1D74B-BF3C-4EB1-938C-347B97608B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="804" firstSheet="12" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="12" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="166">
   <si>
     <t>Distance</t>
   </si>
@@ -551,6 +551,12 @@
   <si>
     <t>start at right bank</t>
   </si>
+  <si>
+    <t>bottom piezo 6</t>
+  </si>
+  <si>
+    <t>top piezo 6</t>
+  </si>
 </sst>
 </file>
 
@@ -779,16 +785,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1268,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680724640"/>
@@ -1330,7 +1336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680722144"/>
@@ -1378,7 +1384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1910,7 +1916,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568800591"/>
@@ -1972,7 +1978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015223983"/>
@@ -2020,7 +2026,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2483,7 +2489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="583681535"/>
@@ -2545,7 +2551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811039471"/>
@@ -2593,7 +2599,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3149,7 +3155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701696767"/>
@@ -3211,7 +3217,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869339711"/>
@@ -3259,7 +3265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3806,7 +3812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584295391"/>
@@ -3868,7 +3874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869286815"/>
@@ -3916,7 +3922,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3967,7 +3973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4270,7 +4276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949856"/>
@@ -4332,7 +4338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949024"/>
@@ -4380,7 +4386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4996,7 +5002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043194127"/>
@@ -5058,7 +5064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015234655"/>
@@ -5106,7 +5112,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5755,7 +5761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1810760255"/>
@@ -5817,7 +5823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811056175"/>
@@ -5865,7 +5871,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6396,7 +6402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993662911"/>
@@ -6458,7 +6464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811060815"/>
@@ -6506,7 +6512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6881,7 +6887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273530959"/>
@@ -6944,7 +6950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273528463"/>
@@ -6992,7 +6998,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7043,7 +7049,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7461,7 +7467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1946070992"/>
@@ -7523,7 +7529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1645237152"/>
@@ -7571,7 +7577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8229,7 +8235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1988108927"/>
@@ -8291,7 +8297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811050607"/>
@@ -8339,7 +8345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8850,7 +8856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008535167"/>
@@ -8912,7 +8918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811067311"/>
@@ -8960,7 +8966,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17178,17 +17184,17 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -17211,7 +17217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -17232,7 +17238,7 @@
         <v>2722.0089999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -17250,7 +17256,7 @@
         <v>2722.0069999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -17267,7 +17273,7 @@
         <v>2721.9939999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A11" si="1">A4+10</f>
         <v>20</v>
@@ -17284,7 +17290,7 @@
         <v>2721.9959999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -17301,7 +17307,7 @@
         <v>2721.9989999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17318,7 +17324,7 @@
         <v>2721.9669999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -17335,7 +17341,7 @@
         <v>2721.9479999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -17352,7 +17358,7 @@
         <v>2721.9179999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -17371,7 +17377,7 @@
         <v>2721.8199999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -17387,7 +17393,7 @@
         <v>2721.7529999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A17" si="2">A11+10</f>
         <v>90</v>
@@ -17404,7 +17410,7 @@
         <v>2721.7699999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -17421,7 +17427,7 @@
         <v>2721.7779999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -17438,7 +17444,7 @@
         <v>2721.7909999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -17455,7 +17461,7 @@
         <v>2721.7739999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -17472,7 +17478,7 @@
         <v>2721.7589999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -17489,7 +17495,7 @@
         <v>2721.7409999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>150</v>
       </c>
@@ -17506,7 +17512,7 @@
         <v>2721.752</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>150</v>
       </c>
@@ -17524,7 +17530,7 @@
         <v>2722.2069999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" ref="A20:A33" si="3">A19+10</f>
         <v>160</v>
@@ -17541,7 +17547,7 @@
         <v>2721.7529999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -17558,7 +17564,7 @@
         <v>2721.7349999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -17575,7 +17581,7 @@
         <v>2721.7409999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -17592,7 +17598,7 @@
         <v>2721.7369999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -17609,7 +17615,7 @@
         <v>2721.7279999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -17626,7 +17632,7 @@
         <v>2721.7269999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -17643,7 +17649,7 @@
         <v>2721.7649999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -17660,7 +17666,7 @@
         <v>2721.7479999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -17677,7 +17683,7 @@
         <v>2721.7569999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -17694,7 +17700,7 @@
         <v>2721.7699999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -17711,7 +17717,7 @@
         <v>2721.8029999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -17730,7 +17736,7 @@
         <v>2721.8149999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -17747,7 +17753,7 @@
         <v>2721.8079999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -17764,7 +17770,7 @@
         <v>2721.8109999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ref="A34" si="5">A33+10</f>
         <v>300</v>
@@ -17796,19 +17802,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="5"/>
-    <col min="5" max="5" width="24.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="24.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="16" style="5" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -17831,7 +17837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -17851,7 +17857,7 @@
         <v>2724.1630000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -17868,7 +17874,7 @@
         <v>2724.1340000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A6" si="1">A3+10</f>
         <v>20</v>
@@ -17889,7 +17895,7 @@
         <v>0.18899999999985084</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -17906,7 +17912,7 @@
         <v>2723.9890000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17925,7 +17931,7 @@
         <v>2723.9900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -17950,7 +17956,7 @@
         <v>-0.11200000000008004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A6+10</f>
         <v>50</v>
@@ -17967,7 +17973,7 @@
         <v>2723.9870000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8+10</f>
         <v>60</v>
@@ -17984,7 +17990,7 @@
         <v>2723.9970000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>70</v>
@@ -18001,7 +18007,7 @@
         <v>2724.0190000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A55" si="2">A10+10</f>
         <v>80</v>
@@ -18018,7 +18024,7 @@
         <v>2724.0280000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -18035,7 +18041,7 @@
         <v>2724.0860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -18052,7 +18058,7 @@
         <v>2724.0950000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -18069,7 +18075,7 @@
         <v>2724.11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -18086,7 +18092,7 @@
         <v>2724.0730000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -18103,7 +18109,7 @@
         <v>2724.0990000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -18120,7 +18126,7 @@
         <v>2724.0090000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -18137,7 +18143,7 @@
         <v>2723.9900000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -18154,7 +18160,7 @@
         <v>2723.9990000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -18171,7 +18177,7 @@
         <v>2724.0030000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -18188,7 +18194,7 @@
         <v>2723.8390000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -18205,7 +18211,7 @@
         <v>2723.7900000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -18222,7 +18228,7 @@
         <v>2723.7690000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -18239,7 +18245,7 @@
         <v>2723.7750000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -18256,7 +18262,7 @@
         <v>2723.7990000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -18273,7 +18279,7 @@
         <v>2723.7990000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -18290,7 +18296,7 @@
         <v>2723.7870000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+10</f>
         <v>250</v>
@@ -18307,7 +18313,7 @@
         <v>2723.8110000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -18324,7 +18330,7 @@
         <v>2723.8090000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -18341,7 +18347,7 @@
         <v>2723.8340000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -18358,7 +18364,7 @@
         <v>2723.8390000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -18375,7 +18381,7 @@
         <v>2723.8440000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -18392,7 +18398,7 @@
         <v>2723.8590000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -18409,7 +18415,7 @@
         <v>2723.82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -18431,7 +18437,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -18452,7 +18458,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -18472,7 +18478,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -18492,7 +18498,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -18512,7 +18518,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="2"/>
         <v>370</v>
@@ -18532,7 +18538,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="2"/>
         <v>380</v>
@@ -18552,7 +18558,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>390</v>
@@ -18572,7 +18578,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>400</v>
@@ -18592,7 +18598,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" si="2"/>
         <v>410</v>
@@ -18612,7 +18618,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="2"/>
         <v>420</v>
@@ -18631,7 +18637,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="2"/>
         <v>430</v>
@@ -18653,7 +18659,7 @@
         <v>2723.7809999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="2"/>
         <v>440</v>
@@ -18670,7 +18676,7 @@
         <v>2723.8680000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="2"/>
         <v>450</v>
@@ -18687,7 +18693,7 @@
         <v>2723.8670000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="2"/>
         <v>460</v>
@@ -18704,7 +18710,7 @@
         <v>2723.88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" si="2"/>
         <v>470</v>
@@ -18721,7 +18727,7 @@
         <v>2723.9270000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" si="2"/>
         <v>480</v>
@@ -18740,7 +18746,7 @@
         <v>2723.9280000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" si="2"/>
         <v>490</v>
@@ -18757,7 +18763,7 @@
         <v>2724.2390000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f t="shared" si="2"/>
         <v>500</v>
@@ -18774,7 +18780,7 @@
         <v>2724.3440000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f t="shared" si="2"/>
         <v>510</v>
@@ -18791,7 +18797,7 @@
         <v>2724.3970000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" si="2"/>
         <v>520</v>
@@ -18824,15 +18830,15 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -18855,7 +18861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -18875,7 +18881,7 @@
         <v>2724.2590000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -18892,7 +18898,7 @@
         <v>2724.2190000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A8" si="1">A3+10</f>
         <v>20</v>
@@ -18911,7 +18917,7 @@
         <v>2724.1490000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -18928,7 +18934,7 @@
         <v>2724.0990000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18945,7 +18951,7 @@
         <v>2724.09</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -18965,7 +18971,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -18991,7 +18997,7 @@
         <v>0.19899999999915963</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>60</v>
       </c>
@@ -19009,7 +19015,7 @@
         <v>2724.4880000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A8+10</f>
         <v>70</v>
@@ -19026,7 +19032,7 @@
         <v>2724.0240000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A25" si="2">A10+10</f>
         <v>80</v>
@@ -19043,7 +19049,7 @@
         <v>2724.0580000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -19060,7 +19066,7 @@
         <v>2724.0970000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19077,7 +19083,7 @@
         <v>2724.1290000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19094,7 +19100,7 @@
         <v>2724.1550000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -19111,7 +19117,7 @@
         <v>2724.1690000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -19128,7 +19134,7 @@
         <v>2724.1790000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -19145,7 +19151,7 @@
         <v>2724.1790000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -19162,7 +19168,7 @@
         <v>2724.1900000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -19179,7 +19185,7 @@
         <v>2724.2060000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -19196,7 +19202,7 @@
         <v>2724.1520000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -19213,7 +19219,7 @@
         <v>2724.1920000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -19230,7 +19236,7 @@
         <v>2724.2180000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -19247,7 +19253,7 @@
         <v>2724.2030000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -19264,7 +19270,7 @@
         <v>2724.2220000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -19283,7 +19289,7 @@
         <v>2724.2270000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" ref="A26:A35" si="3">A25+10</f>
         <v>230</v>
@@ -19300,7 +19306,7 @@
         <v>2724.2580000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -19317,7 +19323,7 @@
         <v>2724.2670000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -19334,7 +19340,7 @@
         <v>2724.2690000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -19351,7 +19357,7 @@
         <v>2724.3250000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -19368,7 +19374,7 @@
         <v>2724.3830000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -19385,7 +19391,7 @@
         <v>2724.5440000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -19402,7 +19408,7 @@
         <v>2724.59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -19419,7 +19425,7 @@
         <v>2724.6360000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -19436,7 +19442,7 @@
         <v>2724.8690000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -19468,17 +19474,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -19501,7 +19507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -19524,7 +19530,7 @@
         <v>2725.069</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -19542,7 +19548,7 @@
         <v>2724.9679999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -19559,7 +19565,7 @@
         <v>2724.9290000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A18" si="1">A4+10</f>
         <v>20</v>
@@ -19576,7 +19582,7 @@
         <v>2724.864</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -19593,7 +19599,7 @@
         <v>2724.8760000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19610,7 +19616,7 @@
         <v>2724.8780000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19629,7 +19635,7 @@
         <v>2724.7869999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19646,7 +19652,7 @@
         <v>2724.7289999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19663,7 +19669,7 @@
         <v>2724.7460000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19683,7 +19689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19704,7 +19710,7 @@
         <v>0.22500000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -19721,7 +19727,7 @@
         <v>2724.7280000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -19738,7 +19744,7 @@
         <v>2724.7089999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -19755,7 +19761,7 @@
         <v>2724.6889999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -19772,7 +19778,7 @@
         <v>2724.6979999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -19789,7 +19795,7 @@
         <v>2724.6930000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -19808,7 +19814,7 @@
         <v>2724.6550000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>150</v>
       </c>
@@ -19833,7 +19839,7 @@
         <v>-6.3000000000101863E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>A18+10</f>
         <v>160</v>
@@ -19852,7 +19858,7 @@
         <v>2724.7460000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" ref="A21:A26" si="2">A20+10</f>
         <v>170</v>
@@ -19869,7 +19875,7 @@
         <v>2724.8890000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -19886,7 +19892,7 @@
         <v>2724.89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -19903,7 +19909,7 @@
         <v>2725.107</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -19920,7 +19926,7 @@
         <v>2725.009</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -19937,7 +19943,7 @@
         <v>2725.0030000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -19954,7 +19960,7 @@
         <v>2725.1080000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" ref="A27:A29" si="3">A26+10</f>
         <v>230</v>
@@ -19971,7 +19977,7 @@
         <v>2725.1460000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -19988,7 +19994,7 @@
         <v>2725.3380000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -20020,15 +20026,15 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
@@ -20074,7 +20080,7 @@
         <v>2726.7690000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -20092,7 +20098,7 @@
         <v>2725.2820000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -20109,7 +20115,7 @@
         <v>2725.232</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A8" si="1">A4+10</f>
         <v>20</v>
@@ -20126,7 +20132,7 @@
         <v>2725.3250000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -20143,7 +20149,7 @@
         <v>2725.163</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -20160,7 +20166,7 @@
         <v>2725.1280000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20179,7 +20185,7 @@
         <v>2725.1040000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -20207,7 +20213,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A8+10</f>
         <v>60</v>
@@ -20224,7 +20230,7 @@
         <v>2725.181</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>A10+10</f>
         <v>70</v>
@@ -20244,7 +20250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A24" si="2">A11+10</f>
         <v>80</v>
@@ -20265,7 +20271,7 @@
         <v>0.23399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -20283,7 +20289,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20300,7 +20306,7 @@
         <v>2725.143</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20317,7 +20323,7 @@
         <v>2725.1889999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20334,7 +20340,7 @@
         <v>2725.1860000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20351,7 +20357,7 @@
         <v>2725.1559999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20368,7 +20374,7 @@
         <v>2725.1930000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20387,7 +20393,7 @@
         <v>2725.1959999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20404,7 +20410,7 @@
         <v>2725.261</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20421,7 +20427,7 @@
         <v>2725.2750000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -20438,7 +20444,7 @@
         <v>2725.32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -20455,7 +20461,7 @@
         <v>2725.3910000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -20487,16 +20493,16 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -20519,7 +20525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -20542,7 +20548,7 @@
         <v>2727.5860000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -20563,7 +20569,7 @@
         <v>2730.6360000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -20584,7 +20590,7 @@
         <v>2732.5620000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -20605,7 +20611,7 @@
         <v>2733.5230000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -20626,7 +20632,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>A6+10</f>
         <v>10</v>
@@ -20649,7 +20655,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A31" si="1">A7+10</f>
         <v>20</v>
@@ -20669,7 +20675,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -20689,7 +20695,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -20709,7 +20715,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20729,7 +20735,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20749,7 +20755,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20769,7 +20775,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20789,7 +20795,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20809,7 +20815,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -20826,7 +20832,7 @@
         <v>2732.9370000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -20845,7 +20851,7 @@
         <v>2732.9460000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -20862,7 +20868,7 @@
         <v>2732.9720000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -20879,7 +20885,7 @@
         <v>2733.0070000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -20896,7 +20902,7 @@
         <v>2732.9470000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -20913,7 +20919,7 @@
         <v>2732.9840000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -20930,7 +20936,7 @@
         <v>2732.9940000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -20947,7 +20953,7 @@
         <v>2733.0050000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -20964,7 +20970,7 @@
         <v>2733.0700000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -20981,7 +20987,7 @@
         <v>2733.1000000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -20998,7 +21004,7 @@
         <v>2733.2050000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>210</v>
@@ -21015,7 +21021,7 @@
         <v>2733.4050000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -21032,7 +21038,7 @@
         <v>2733.4940000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>230</v>
@@ -21049,7 +21055,7 @@
         <v>2733.5100000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>240</v>
@@ -21070,7 +21076,7 @@
         <v>0.13200000000006185</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -21087,7 +21093,7 @@
         <v>2733.3750000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>255</v>
       </c>
@@ -21105,7 +21111,7 @@
         <v>2733.3830000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>255</v>
       </c>
@@ -21126,7 +21132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>260</v>
       </c>
@@ -21149,7 +21155,7 @@
         <v>-0.17000000000098225</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>A34+10</f>
         <v>270</v>
@@ -21166,7 +21172,7 @@
         <v>2733.4000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>A35+10</f>
         <v>280</v>
@@ -21183,7 +21189,7 @@
         <v>2733.3950000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>A36+10</f>
         <v>290</v>
@@ -21200,7 +21206,7 @@
         <v>2733.3930000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>A37+10</f>
         <v>300</v>
@@ -21227,24 +21233,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EAF860-0E24-432D-946D-7100FF3E3CE5}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -21263,11 +21269,11 @@
       <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
@@ -21285,7 +21291,7 @@
         <v>2733.5149999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -21303,7 +21309,7 @@
         <v>2733.7549999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -21319,7 +21325,7 @@
         <v>2733.7949999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
@@ -21335,7 +21341,7 @@
         <v>2733.8609999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>60</v>
       </c>
@@ -21351,7 +21357,7 @@
         <v>2733.83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>80</v>
       </c>
@@ -21367,7 +21373,7 @@
         <v>2733.7749999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -21383,7 +21389,7 @@
         <v>2733.6549999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>110</v>
       </c>
@@ -21399,7 +21405,7 @@
         <v>2733.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>130</v>
       </c>
@@ -21417,7 +21423,7 @@
         <v>2733.2249999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>150</v>
       </c>
@@ -21435,7 +21441,7 @@
         <v>2733.0449999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>160</v>
       </c>
@@ -21451,7 +21457,7 @@
         <v>2733.04</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>170</v>
       </c>
@@ -21467,7 +21473,7 @@
         <v>2733.0049999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>180</v>
       </c>
@@ -21483,7 +21489,7 @@
         <v>2732.9649999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>190</v>
       </c>
@@ -21499,7 +21505,7 @@
         <v>2732.9199999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -21515,7 +21521,7 @@
         <v>2732.9249999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>210</v>
       </c>
@@ -21531,7 +21537,7 @@
         <v>2732.8599999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>220</v>
       </c>
@@ -21547,7 +21553,7 @@
         <v>2732.8399999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>230</v>
       </c>
@@ -21563,7 +21569,7 @@
         <v>2732.8649999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>240</v>
       </c>
@@ -21579,7 +21585,7 @@
         <v>2732.8599999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>250</v>
       </c>
@@ -21597,7 +21603,7 @@
         <v>2732.95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>250</v>
       </c>
@@ -21614,8 +21620,12 @@
         <f t="shared" si="0"/>
         <v>2733.4199999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>G22-G21</f>
+        <v>0.46999999999979991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>260</v>
       </c>
@@ -21631,7 +21641,7 @@
         <v>2733.0699999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>270</v>
       </c>
@@ -21649,7 +21659,7 @@
         <v>2733.0749999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>280</v>
       </c>
@@ -21667,7 +21677,7 @@
         <v>2733.1049999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>290</v>
       </c>
@@ -21683,7 +21693,7 @@
         <v>2733.1499999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>300</v>
       </c>
@@ -21699,7 +21709,7 @@
         <v>2733.1699999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>320</v>
       </c>
@@ -21717,7 +21727,7 @@
         <v>2733.2549999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>335</v>
       </c>
@@ -21735,7 +21745,7 @@
         <v>2733.4349999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>350</v>
       </c>
@@ -21751,7 +21761,7 @@
         <v>2733.5749999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>370</v>
       </c>
@@ -21767,7 +21777,7 @@
         <v>2733.56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>390</v>
       </c>
@@ -21783,7 +21793,7 @@
         <v>2733.5519999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>410</v>
       </c>
@@ -21799,7 +21809,7 @@
         <v>2733.4979999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>430</v>
       </c>
@@ -21830,15 +21840,15 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -21861,7 +21871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
@@ -21883,7 +21893,7 @@
         <v>2733.5149999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -21901,7 +21911,7 @@
         <v>2733.2649999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -21920,7 +21930,7 @@
         <v>2733.27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A11" si="1">A4+10</f>
         <v>20</v>
@@ -21936,7 +21946,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -21953,7 +21963,7 @@
         <v>2733.0559999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -21970,7 +21980,7 @@
         <v>2733.087</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -21990,7 +22000,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -22011,7 +22021,7 @@
         <v>0.11900000000000022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -22028,7 +22038,7 @@
         <v>2733.1259999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -22047,7 +22057,7 @@
         <v>2733.0959999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>80</v>
       </c>
@@ -22065,7 +22075,7 @@
         <v>2733.2149999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>A11+10</f>
         <v>90</v>
@@ -22082,7 +22092,7 @@
         <v>2733.0339999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A22" si="2">A13+10</f>
         <v>100</v>
@@ -22099,7 +22109,7 @@
         <v>2732.9839999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -22116,7 +22126,7 @@
         <v>2732.991</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -22135,7 +22145,7 @@
         <v>2733.1229999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -22152,7 +22162,7 @@
         <v>2733.0759999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -22169,7 +22179,7 @@
         <v>2733.0849999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -22186,7 +22196,7 @@
         <v>2733.1809999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -22203,7 +22213,7 @@
         <v>2733.1949999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -22220,7 +22230,7 @@
         <v>2733.203</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22249,18 +22259,18 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -22283,7 +22293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -22303,7 +22313,7 @@
         <v>2734.0970000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -22322,7 +22332,7 @@
         <v>2734.0450000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A7" si="1">A3+10</f>
         <v>20</v>
@@ -22339,7 +22349,7 @@
         <v>2733.902</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -22356,7 +22366,7 @@
         <v>2733.8380000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -22373,7 +22383,7 @@
         <v>2733.8519999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -22392,7 +22402,7 @@
         <v>2733.8110000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>50</v>
       </c>
@@ -22410,7 +22420,7 @@
         <v>2733.998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A7+10</f>
         <v>60</v>
@@ -22427,7 +22437,7 @@
         <v>2733.8510000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>70</v>
@@ -22448,7 +22458,7 @@
         <v>0.18700000000000028</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A22" si="2">A10+10</f>
         <v>80</v>
@@ -22465,7 +22475,7 @@
         <v>2733.7670000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -22482,7 +22492,7 @@
         <v>2733.7820000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -22499,7 +22509,7 @@
         <v>2733.8070000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -22518,7 +22528,7 @@
         <v>2734.0619999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -22535,7 +22545,7 @@
         <v>2733.7330000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -22554,7 +22564,7 @@
         <v>2733.9549999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -22571,7 +22581,7 @@
         <v>2734.0190000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -22588,7 +22598,7 @@
         <v>2734.0460000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -22605,7 +22615,7 @@
         <v>2734.1869999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -22622,7 +22632,7 @@
         <v>2734.2170000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22639,7 +22649,7 @@
         <v>2734.2960000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22671,16 +22681,16 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -22703,7 +22713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
@@ -22726,7 +22736,7 @@
         <v>2734.7739999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -22744,7 +22754,7 @@
         <v>2734.8239999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -22761,7 +22771,7 @@
         <v>2734.8089999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A10" si="1">A4+10</f>
         <v>20</v>
@@ -22778,7 +22788,7 @@
         <v>2734.8419999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -22795,7 +22805,7 @@
         <v>2734.7749999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -22812,7 +22822,7 @@
         <v>2734.7709999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -22829,7 +22839,7 @@
         <v>2734.7369999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -22846,7 +22856,7 @@
         <v>2734.7049999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -22865,7 +22875,7 @@
         <v>2734.6659999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>70</v>
       </c>
@@ -22883,7 +22893,7 @@
         <v>2734.7939999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A10+10</f>
         <v>80</v>
@@ -22900,7 +22910,7 @@
         <v>2734.5979999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" ref="A13:A29" si="2">A12+10</f>
         <v>90</v>
@@ -22917,7 +22927,7 @@
         <v>2734.5749999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -22934,7 +22944,7 @@
         <v>2734.5349999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -22951,7 +22961,7 @@
         <v>2734.5099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -22968,7 +22978,7 @@
         <v>2734.4669999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -22985,7 +22995,7 @@
         <v>2734.5329999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -23002,7 +23012,7 @@
         <v>2734.5349999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -23019,7 +23029,7 @@
         <v>2734.4719999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -23042,7 +23052,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -23066,7 +23076,7 @@
         <v>0.12800000000015643</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -23086,7 +23096,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -23106,7 +23116,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -23126,7 +23136,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -23146,7 +23156,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -23166,7 +23176,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -23186,7 +23196,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23206,7 +23216,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23228,7 +23238,7 @@
         <v>2734.1124999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" ref="A30:A37" si="3">A29+10</f>
         <v>260</v>
@@ -23245,7 +23255,7 @@
         <v>2734.1529999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -23262,7 +23272,7 @@
         <v>2734.2159999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -23279,7 +23289,7 @@
         <v>2734.2419999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -23296,7 +23306,7 @@
         <v>2734.2759999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -23313,7 +23323,7 @@
         <v>2734.3029999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -23330,7 +23340,7 @@
         <v>2734.3349999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -23347,7 +23357,7 @@
         <v>2734.3749999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -23380,15 +23390,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -23411,7 +23421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -23431,7 +23441,7 @@
         <v>2734.2670000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -23448,7 +23458,7 @@
         <v>2734.261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A21" si="1">A3+10</f>
         <v>20</v>
@@ -23465,7 +23475,7 @@
         <v>2734.2240000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -23487,7 +23497,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -23507,7 +23517,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -23527,7 +23537,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -23547,7 +23557,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -23567,7 +23577,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -23587,7 +23597,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -23607,7 +23617,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -23626,7 +23636,7 @@
         <v>2734.3740000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -23643,7 +23653,7 @@
         <v>2734.431</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -23659,7 +23669,7 @@
         <v>2734.46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -23678,7 +23688,7 @@
         <v>2734.3879999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -23695,7 +23705,7 @@
         <v>2734.2930000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -23712,7 +23722,7 @@
         <v>2734.2640000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -23729,7 +23739,7 @@
         <v>2734.2249999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -23746,7 +23756,7 @@
         <v>2734.2629999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -23763,7 +23773,7 @@
         <v>2734.3030000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -23782,7 +23792,7 @@
         <v>2734.3589999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>190</v>
       </c>
@@ -23800,7 +23810,7 @@
         <v>2734.527</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>A21+10</f>
         <v>200</v>
@@ -23821,7 +23831,7 @@
         <v>0.16800000000012005</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>A23+10</f>
         <v>210</v>
@@ -23838,7 +23848,7 @@
         <v>2734.4540000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>A24+10</f>
         <v>220</v>
@@ -23855,7 +23865,7 @@
         <v>2734.5129999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A25+10</f>
         <v>230</v>
@@ -23872,7 +23882,7 @@
         <v>2734.5630000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>A26+10</f>
         <v>240</v>
@@ -23889,7 +23899,7 @@
         <v>2734.6040000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+10</f>
         <v>250</v>
@@ -23922,18 +23932,18 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -23956,7 +23966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -23976,7 +23986,7 @@
         <v>2721.8740000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -23993,7 +24003,7 @@
         <v>2721.86</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A17" si="1">A3+10</f>
         <v>20</v>
@@ -24010,7 +24020,7 @@
         <v>2721.8490000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -24027,7 +24037,7 @@
         <v>2721.8340000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -24044,7 +24054,7 @@
         <v>2721.8180000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -24061,7 +24071,7 @@
         <v>2721.7950000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -24078,7 +24088,7 @@
         <v>2721.7780000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -24097,7 +24107,7 @@
         <v>2721.7690000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -24114,7 +24124,7 @@
         <v>2721.748</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -24131,7 +24141,7 @@
         <v>2721.7560000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -24148,7 +24158,7 @@
         <v>2721.7650000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -24165,7 +24175,7 @@
         <v>2721.7400000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -24182,7 +24192,7 @@
         <v>2721.7450000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -24199,7 +24209,7 @@
         <v>2721.8090000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -24216,7 +24226,7 @@
         <v>2721.7870000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -24245,7 +24255,7 @@
         <v>-6.0000000003128662E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>150</v>
       </c>
@@ -24265,7 +24275,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>160</v>
       </c>
@@ -24281,7 +24291,7 @@
         <v>2721.7630000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" ref="A20:A30" si="2">A19+10</f>
         <v>170</v>
@@ -24298,7 +24308,7 @@
         <v>2721.808</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -24315,7 +24325,7 @@
         <v>2721.7620000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -24334,7 +24344,7 @@
         <v>2721.7570000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -24350,7 +24360,7 @@
         <v>2721.8620000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -24367,7 +24377,7 @@
         <v>2721.864</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -24384,7 +24394,7 @@
         <v>2721.86</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -24401,7 +24411,7 @@
         <v>2721.846</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -24418,7 +24428,7 @@
         <v>2721.8590000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -24435,7 +24445,7 @@
         <v>2721.8990000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -24452,7 +24462,7 @@
         <v>2721.9250000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -24471,7 +24481,7 @@
         <v>2721.9070000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -24508,15 +24518,15 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -24539,7 +24549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -24560,7 +24570,7 @@
         <v>2735.9430000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -24578,7 +24588,7 @@
         <v>2735.5550000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -24597,7 +24607,7 @@
         <v>2735.4860000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A7" si="1">A4+10</f>
         <v>20</v>
@@ -24614,7 +24624,7 @@
         <v>2735.4610000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -24631,7 +24641,7 @@
         <v>2735.4480000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -24650,7 +24660,7 @@
         <v>2735.4180000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45</v>
       </c>
@@ -24668,7 +24678,7 @@
         <v>2735.5570000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A7+10</f>
         <v>50</v>
@@ -24691,7 +24701,7 @@
         <v>0.29700000000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>60</v>
@@ -24710,7 +24720,7 @@
         <v>2735.3720000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60</v>
       </c>
@@ -24728,7 +24738,7 @@
         <v>2735.6690000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A10+10</f>
         <v>70</v>
@@ -24745,7 +24755,7 @@
         <v>2735.4510000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>A12+10</f>
         <v>80</v>
@@ -24762,7 +24772,7 @@
         <v>2735.4030000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>A13+10</f>
         <v>90</v>
@@ -24779,7 +24789,7 @@
         <v>2735.5270000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ref="A15:A23" si="2">A14+10</f>
         <v>100</v>
@@ -24796,7 +24806,7 @@
         <v>2735.4670000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -24813,7 +24823,7 @@
         <v>2735.4700000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -24832,7 +24842,7 @@
         <v>2735.5380000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -24849,7 +24859,7 @@
         <v>2735.7490000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -24866,7 +24876,7 @@
         <v>2735.8090000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -24883,7 +24893,7 @@
         <v>2735.9030000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -24900,7 +24910,7 @@
         <v>2735.9520000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -24917,7 +24927,7 @@
         <v>2735.9980000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -24949,15 +24959,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -24980,7 +24990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -25000,7 +25010,7 @@
         <v>2736.3030000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -25017,7 +25027,7 @@
         <v>2736.1690000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A35" si="1">A3+10</f>
         <v>20</v>
@@ -25034,7 +25044,7 @@
         <v>2736.1770000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -25051,7 +25061,7 @@
         <v>2736.1330000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -25068,7 +25078,7 @@
         <v>2736.1220000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -25085,7 +25095,7 @@
         <v>2736.1160000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -25107,7 +25117,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -25126,7 +25136,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -25146,7 +25156,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -25166,7 +25176,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -25186,7 +25196,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -25206,7 +25216,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -25226,7 +25236,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -25246,7 +25256,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -25266,7 +25276,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -25286,7 +25296,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -25306,7 +25316,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -25326,7 +25336,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -25346,7 +25356,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -25366,7 +25376,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -25388,7 +25398,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>210</v>
@@ -25405,7 +25415,7 @@
         <v>2736.2770000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -25422,7 +25432,7 @@
         <v>2736.2970000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>230</v>
@@ -25439,7 +25449,7 @@
         <v>2736.3540000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>240</v>
@@ -25456,7 +25466,7 @@
         <v>2736.4120000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -25473,7 +25483,7 @@
         <v>2736.4440000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>260</v>
@@ -25490,7 +25500,7 @@
         <v>2736.4960000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -25507,7 +25517,7 @@
         <v>2736.5880000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -25524,7 +25534,7 @@
         <v>2736.6180000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -25543,7 +25553,7 @@
         <v>2736.6430000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>290</v>
       </c>
@@ -25565,7 +25575,7 @@
         <v>0.15200000000004366</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -25582,7 +25592,7 @@
         <v>2736.7930000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
@@ -25599,7 +25609,7 @@
         <v>2736.8430000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -25632,16 +25642,16 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -25664,7 +25674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -25684,7 +25694,7 @@
         <v>2736.7369999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -25701,7 +25711,7 @@
         <v>2736.7269999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A6" si="1">A3+10</f>
         <v>20</v>
@@ -25718,7 +25728,7 @@
         <v>2736.7179999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -25735,7 +25745,7 @@
         <v>2736.6589999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -25754,7 +25764,7 @@
         <v>2736.4929999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -25772,7 +25782,7 @@
         <v>2736.6469999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A6+10</f>
         <v>50</v>
@@ -25789,7 +25799,7 @@
         <v>2736.393</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8+10</f>
         <v>60</v>
@@ -25806,7 +25816,7 @@
         <v>2736.4089999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>70</v>
@@ -25823,7 +25833,7 @@
         <v>2736.4249999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A36" si="2">A10+10</f>
         <v>80</v>
@@ -25840,7 +25850,7 @@
         <v>2736.4690000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -25857,7 +25867,7 @@
         <v>2736.4769999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -25874,7 +25884,7 @@
         <v>2736.5360000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -25891,7 +25901,7 @@
         <v>2736.529</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -25908,7 +25918,7 @@
         <v>2736.5349999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -25925,7 +25935,7 @@
         <v>2736.4719999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -25942,7 +25952,7 @@
         <v>2736.4379999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -25959,7 +25969,7 @@
         <v>2736.4409999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -25982,7 +25992,7 @@
         <v>0.15399999999999636</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -26002,7 +26012,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -26022,7 +26032,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -26042,7 +26052,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -26062,7 +26072,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -26082,7 +26092,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -26102,7 +26112,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -26122,7 +26132,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -26142,7 +26152,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -26162,7 +26172,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -26184,7 +26194,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -26204,7 +26214,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -26224,7 +26234,7 @@
         <v>2736.3114999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -26241,7 +26251,7 @@
         <v>2736.3449999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -26258,7 +26268,7 @@
         <v>2736.3209999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -26275,7 +26285,7 @@
         <v>2736.453</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -26292,7 +26302,7 @@
         <v>2736.5619999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -26311,7 +26321,7 @@
         <v>2736.5740000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -26320,7 +26330,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -26329,7 +26339,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -26338,7 +26348,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -26347,7 +26357,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -26364,22 +26374,22 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62944037-0C0F-454E-8D1D-821A1F229F1C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -26398,11 +26408,11 @@
       <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>157</v>
       </c>
@@ -26423,7 +26433,7 @@
         <v>2734.5250000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
@@ -26443,7 +26453,7 @@
         <v>2736.7950000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -26461,7 +26471,7 @@
         <v>2736.8700000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>20</v>
       </c>
@@ -26477,7 +26487,7 @@
         <v>2736.82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
@@ -26493,7 +26503,7 @@
         <v>2736.5650000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -26509,7 +26519,7 @@
         <v>2736.5250000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>90</v>
       </c>
@@ -26527,7 +26537,7 @@
         <v>2736.2950000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -26543,7 +26553,7 @@
         <v>2736.3050000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>110</v>
       </c>
@@ -26559,7 +26569,7 @@
         <v>2736.2900000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>120</v>
       </c>
@@ -26575,7 +26585,7 @@
         <v>2736.288</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>130</v>
       </c>
@@ -26591,7 +26601,7 @@
         <v>2736.26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>140</v>
       </c>
@@ -26607,7 +26617,7 @@
         <v>2736.2350000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>155</v>
       </c>
@@ -26625,7 +26635,7 @@
         <v>2736.2650000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>155</v>
       </c>
@@ -26643,7 +26653,7 @@
         <v>2736.7000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>170</v>
       </c>
@@ -26659,7 +26669,7 @@
         <v>2736.2650000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>180</v>
       </c>
@@ -26674,8 +26684,12 @@
         <f t="shared" si="0"/>
         <v>2736.2760000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>G15-G14</f>
+        <v>0.43499999999994543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>190</v>
       </c>
@@ -26691,7 +26705,7 @@
         <v>2736.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -26707,7 +26721,7 @@
         <v>2736.3100000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>210</v>
       </c>
@@ -26723,7 +26737,7 @@
         <v>2736.2650000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>220</v>
       </c>
@@ -26739,7 +26753,7 @@
         <v>2736.2500000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>230</v>
       </c>
@@ -26755,7 +26769,7 @@
         <v>2736.2500000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>240</v>
       </c>
@@ -26771,7 +26785,7 @@
         <v>2736.2700000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>250</v>
       </c>
@@ -26787,7 +26801,7 @@
         <v>2736.2150000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>260</v>
       </c>
@@ -26803,7 +26817,7 @@
         <v>2736.2380000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>270</v>
       </c>
@@ -26819,7 +26833,7 @@
         <v>2736.2350000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>280</v>
       </c>
@@ -26835,7 +26849,7 @@
         <v>2736.2250000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>290</v>
       </c>
@@ -26853,7 +26867,7 @@
         <v>2736.2550000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>300</v>
       </c>
@@ -26869,7 +26883,7 @@
         <v>2736.3410000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>320</v>
       </c>
@@ -26885,7 +26899,7 @@
         <v>2736.4250000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>340</v>
       </c>
@@ -26901,7 +26915,7 @@
         <v>2736.48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>360</v>
       </c>
@@ -26917,7 +26931,7 @@
         <v>2736.57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>370</v>
       </c>
@@ -26933,7 +26947,7 @@
         <v>2736.61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>390</v>
       </c>
@@ -26949,12 +26963,12 @@
         <v>2736.69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <v>410</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>2.4750000000000001</v>
       </c>
       <c r="D35" s="3"/>
@@ -26965,12 +26979,12 @@
         <v>2736.7650000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>430</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>2.2749999999999999</v>
       </c>
       <c r="D36" s="3"/>
@@ -26988,21 +27002,21 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C12D5E-274C-49F4-AC1E-9E3A5CF8DFEE}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27021,11 +27035,11 @@
       <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>158</v>
       </c>
@@ -27047,7 +27061,7 @@
         <v>2736.7950000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -27065,7 +27079,7 @@
         <v>2737.94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -27077,11 +27091,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G30" si="0">$F$2-C4</f>
+        <f t="shared" ref="G4:G29" si="0">$F$2-C4</f>
         <v>2737.8500000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
@@ -27097,7 +27111,7 @@
         <v>2737.59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -27113,7 +27127,7 @@
         <v>2737.5780000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70</v>
       </c>
@@ -27129,7 +27143,7 @@
         <v>2737.5600000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>90</v>
       </c>
@@ -27145,7 +27159,7 @@
         <v>2737.5350000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -27161,7 +27175,7 @@
         <v>2737.5450000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>120</v>
       </c>
@@ -27177,7 +27191,7 @@
         <v>2737.3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>130</v>
       </c>
@@ -27193,7 +27207,7 @@
         <v>2737.2050000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>140</v>
       </c>
@@ -27209,7 +27223,7 @@
         <v>2737.2900000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>150</v>
       </c>
@@ -27225,7 +27239,7 @@
         <v>2737.2550000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>160</v>
       </c>
@@ -27241,7 +27255,7 @@
         <v>2737.2450000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>170</v>
       </c>
@@ -27250,30 +27264,38 @@
         <v>1.9950000000000001</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>2737.2450000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>2738.0400000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2737.7200000000003</v>
+      </c>
+      <c r="H16">
+        <f>G16-G15</f>
+        <v>0.47499999999990905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>180</v>
       </c>
@@ -27289,7 +27311,7 @@
         <v>2737.23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>190</v>
       </c>
@@ -27305,7 +27327,7 @@
         <v>2737.2650000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -27321,7 +27343,7 @@
         <v>2737.2700000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>210</v>
       </c>
@@ -27337,7 +27359,7 @@
         <v>2737.2200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>220</v>
       </c>
@@ -27353,7 +27375,7 @@
         <v>2737.2510000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>230</v>
       </c>
@@ -27369,7 +27391,7 @@
         <v>2737.4050000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>240</v>
       </c>
@@ -27385,7 +27407,7 @@
         <v>2737.38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>250</v>
       </c>
@@ -27401,7 +27423,7 @@
         <v>2737.4420000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>260</v>
       </c>
@@ -27417,7 +27439,7 @@
         <v>2737.4050000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>270</v>
       </c>
@@ -27433,7 +27455,7 @@
         <v>2737.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>280</v>
       </c>
@@ -27449,7 +27471,7 @@
         <v>2737.5150000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>290</v>
       </c>
@@ -27465,7 +27487,7 @@
         <v>2737.6550000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>310</v>
       </c>
@@ -27481,7 +27503,7 @@
         <v>2738.0650000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>330</v>
       </c>
@@ -27510,21 +27532,21 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -27568,7 +27590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>107</v>
       </c>
@@ -27605,7 +27627,7 @@
         <v>2737.0149999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -27639,7 +27661,7 @@
         <v>2738.0369999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -27670,7 +27692,7 @@
         <v>2738.0320000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A26" si="2">A4+10</f>
         <v>20</v>
@@ -27701,7 +27723,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -27732,7 +27754,7 @@
         <v>2737.9639999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -27763,7 +27785,7 @@
         <v>2737.92</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -27796,7 +27818,7 @@
         <v>2737.91</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -27830,7 +27852,7 @@
         <v>2737.8910000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -27867,7 +27889,7 @@
         <v>2737.7620000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -27898,7 +27920,7 @@
         <v>2737.7359999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -27934,7 +27956,7 @@
         <v>2737.8249999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -27969,7 +27991,7 @@
         <v>2737.806</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -28002,7 +28024,7 @@
         <v>2737.7150000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -28033,7 +28055,7 @@
         <v>2737.7359999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -28064,7 +28086,7 @@
         <v>2737.6979999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -28097,7 +28119,7 @@
         <v>2737.6950000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -28130,7 +28152,7 @@
         <v>2737.8879999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -28161,7 +28183,7 @@
         <v>2737.7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -28196,7 +28218,7 @@
         <v>2737.8150000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>170</v>
       </c>
@@ -28228,7 +28250,7 @@
         <v>2737.72</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -28261,7 +28283,7 @@
         <v>2737.8049999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -28292,7 +28314,7 @@
         <v>2737.79</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -28323,7 +28345,7 @@
         <v>2737.8049999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -28356,7 +28378,7 @@
         <v>2737.817</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -28389,12 +28411,12 @@
         <v>2737.84</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="K27" s="2">
         <v>3.1</v>
       </c>
@@ -28412,7 +28434,7 @@
         <v>2737.915</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
@@ -28430,7 +28452,7 @@
         <v>2737.9349999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K29" s="2">
         <v>3.3</v>
       </c>
@@ -28448,13 +28470,13 @@
         <v>2737.9749999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L30" s="22" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28473,16 +28495,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -28505,7 +28527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -28525,7 +28547,7 @@
         <v>2722.2809999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -28542,7 +28564,7 @@
         <v>2722.2349999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A37" si="1">A3+10</f>
         <v>20</v>
@@ -28559,7 +28581,7 @@
         <v>2722.1919999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -28576,7 +28598,7 @@
         <v>2722.1499999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -28593,7 +28615,7 @@
         <v>2722.0299999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -28615,7 +28637,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -28635,7 +28657,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -28655,7 +28677,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -28675,7 +28697,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -28695,7 +28717,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -28715,7 +28737,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -28735,7 +28757,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -28755,7 +28777,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -28775,7 +28797,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -28795,7 +28817,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -28815,7 +28837,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -28835,7 +28857,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -28857,7 +28879,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -28874,7 +28896,7 @@
         <v>2721.9809999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -28891,7 +28913,7 @@
         <v>2721.9959999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -28908,7 +28930,7 @@
         <v>2721.9899999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>210</v>
@@ -28929,7 +28951,7 @@
         <v>0.19700000000011642</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -28946,7 +28968,7 @@
         <v>2722.0969999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>230</v>
@@ -28963,7 +28985,7 @@
         <v>2722.0819999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>240</v>
@@ -28980,7 +29002,7 @@
         <v>2722.0889999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -28997,7 +29019,7 @@
         <v>2722.1809999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+10</f>
         <v>260</v>
@@ -29014,7 +29036,7 @@
         <v>2722.1719999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -29031,7 +29053,7 @@
         <v>2722.1869999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -29048,7 +29070,7 @@
         <v>2722.1859999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -29065,7 +29087,7 @@
         <v>2722.1749999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -29082,7 +29104,7 @@
         <v>2722.1769999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>310</v>
@@ -29099,7 +29121,7 @@
         <v>2722.1909999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -29116,7 +29138,7 @@
         <v>2722.1779999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>330</v>
@@ -29133,7 +29155,7 @@
         <v>2722.1859999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
@@ -29150,7 +29172,7 @@
         <v>2722.1909999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>350</v>
@@ -29169,7 +29191,7 @@
         <v>2722.1749999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>350</v>
       </c>
@@ -29194,7 +29216,7 @@
         <v>-8.9999999999236024E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>A37+10</f>
         <v>360</v>
@@ -29211,7 +29233,7 @@
         <v>2722.3109999999992</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>A39+10</f>
         <v>370</v>
@@ -29228,7 +29250,7 @@
         <v>2722.3129999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>A40+10</f>
         <v>380</v>
@@ -29245,7 +29267,7 @@
         <v>2722.3099999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>A41+10</f>
         <v>390</v>
@@ -29262,7 +29284,7 @@
         <v>2722.3459999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>A42+10</f>
         <v>400</v>
@@ -29295,16 +29317,16 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -29327,7 +29349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -29347,7 +29369,7 @@
         <v>2722.6449999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -29364,7 +29386,7 @@
         <v>2722.6399999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A9" si="1">A3+10</f>
         <v>20</v>
@@ -29381,7 +29403,7 @@
         <v>2722.6179999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -29398,7 +29420,7 @@
         <v>2722.6069999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -29415,7 +29437,7 @@
         <v>2722.5949999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -29432,7 +29454,7 @@
         <v>2722.5899999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -29449,7 +29471,7 @@
         <v>2722.5139999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -29468,7 +29490,7 @@
         <v>2722.4799999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>70</v>
       </c>
@@ -29496,7 +29518,7 @@
         <v>-0.16299999999955617</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>A9+10</f>
         <v>80</v>
@@ -29513,7 +29535,7 @@
         <v>2722.4619999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A43" si="2">A11+10</f>
         <v>90</v>
@@ -29530,7 +29552,7 @@
         <v>2722.4079999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -29551,7 +29573,7 @@
         <v>0.20299999999997453</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -29568,7 +29590,7 @@
         <v>2722.4499999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -29585,7 +29607,7 @@
         <v>2722.4229999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -29602,7 +29624,7 @@
         <v>2722.4209999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -29619,7 +29641,7 @@
         <v>2722.4299999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -29636,7 +29658,7 @@
         <v>2722.4159999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -29653,7 +29675,7 @@
         <v>2722.4199999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -29670,7 +29692,7 @@
         <v>2722.4179999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -29687,7 +29709,7 @@
         <v>2722.4109999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -29704,7 +29726,7 @@
         <v>2722.4189999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -29721,7 +29743,7 @@
         <v>2722.4269999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -29738,7 +29760,7 @@
         <v>2722.4169999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -29755,7 +29777,7 @@
         <v>2722.3849999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -29772,7 +29794,7 @@
         <v>2722.3639999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -29789,7 +29811,7 @@
         <v>2722.3919999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -29806,7 +29828,7 @@
         <v>2722.3609999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -29823,7 +29845,7 @@
         <v>2722.3389999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -29840,7 +29862,7 @@
         <v>2722.3169999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -29857,7 +29879,7 @@
         <v>2722.3099999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -29874,7 +29896,7 @@
         <v>2722.2879999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -29893,7 +29915,7 @@
         <v>2722.2329999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -29913,7 +29935,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -29933,7 +29955,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -29953,7 +29975,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -29973,7 +29995,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -29993,7 +30015,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="2"/>
         <v>360</v>
@@ -30013,7 +30035,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="2"/>
         <v>370</v>
@@ -30033,7 +30055,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="2"/>
         <v>380</v>
@@ -30053,7 +30075,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="2"/>
         <v>390</v>
@@ -30073,7 +30095,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="2"/>
         <v>400</v>
@@ -30093,7 +30115,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" ref="A44:A53" si="3">A43+10</f>
         <v>410</v>
@@ -30113,7 +30135,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -30135,7 +30157,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -30155,7 +30177,7 @@
         <v>2722.2279999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -30172,7 +30194,7 @@
         <v>2722.2809999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -30189,7 +30211,7 @@
         <v>2722.2869999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -30206,7 +30228,7 @@
         <v>2722.2999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -30223,7 +30245,7 @@
         <v>2722.3229999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -30240,7 +30262,7 @@
         <v>2722.4459999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -30257,7 +30279,7 @@
         <v>2722.5559999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -30290,22 +30312,22 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="26.44140625" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -30349,7 +30371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -30387,7 +30409,7 @@
         <v>2723.1170000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -30420,7 +30442,7 @@
         <v>2723.067</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A14" si="1">A3+10</f>
         <v>20</v>
@@ -30451,7 +30473,7 @@
         <v>2723.0360000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -30484,7 +30506,7 @@
         <v>2723.0060000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -30515,7 +30537,7 @@
         <v>2722.9830000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -30546,7 +30568,7 @@
         <v>2722.9360000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -30577,7 +30599,7 @@
         <v>2722.8420000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -30614,7 +30636,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -30654,7 +30676,7 @@
         <v>-2.400000000034197E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -30687,7 +30709,7 @@
         <v>2722.69</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -30718,7 +30740,7 @@
         <v>2722.4820000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -30749,7 +30771,7 @@
         <v>2722.4940000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -30786,7 +30808,7 @@
         <v>2722.471</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>120</v>
       </c>
@@ -30818,7 +30840,7 @@
         <v>2722.4720000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>A14+10</f>
         <v>130</v>
@@ -30852,7 +30874,7 @@
         <v>2722.471</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ref="A17:A31" si="3">A16+10</f>
         <v>140</v>
@@ -30889,7 +30911,7 @@
         <v>2722.4610000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -30920,7 +30942,7 @@
         <v>2722.5150000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -30951,7 +30973,7 @@
         <v>2722.55</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -30984,7 +31006,7 @@
         <v>2722.5820000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -31015,7 +31037,7 @@
         <v>2722.585</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -31046,7 +31068,7 @@
         <v>2722.576</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -31077,7 +31099,7 @@
         <v>2722.5750000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -31108,7 +31130,7 @@
         <v>2722.5910000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -31125,7 +31147,7 @@
         <v>2722.6779999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -31141,17 +31163,17 @@
         <f t="shared" si="0"/>
         <v>2722.6949999999993</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="21" t="s">
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -31167,9 +31189,9 @@
         <f t="shared" si="0"/>
         <v>2722.7049999999995</v>
       </c>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -31187,9 +31209,9 @@
         <f t="shared" si="0"/>
         <v>2722.9269999999997</v>
       </c>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -31205,9 +31227,9 @@
         <f t="shared" si="0"/>
         <v>2722.9319999999993</v>
       </c>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -31223,9 +31245,9 @@
         <f t="shared" si="0"/>
         <v>2722.9669999999996</v>
       </c>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -31244,12 +31266,12 @@
         <v>2723.0139999999997</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="22" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31269,16 +31291,16 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>139</v>
       </c>
@@ -31301,7 +31323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -31321,7 +31343,7 @@
         <v>2722.9960000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -31338,7 +31360,7 @@
         <v>2722.9549999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A13" si="1">A3+10</f>
         <v>20</v>
@@ -31355,7 +31377,7 @@
         <v>2722.89</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -31372,7 +31394,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -31395,7 +31417,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -31415,7 +31437,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -31435,7 +31457,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -31455,7 +31477,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -31475,7 +31497,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -31495,7 +31517,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -31515,7 +31537,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -31535,7 +31557,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>120</v>
       </c>
@@ -31554,7 +31576,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ref="A15:A26" si="2">A14+10</f>
         <v>130</v>
@@ -31574,7 +31596,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -31596,7 +31618,7 @@
         <v>2722.64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -31613,7 +31635,7 @@
         <v>2722.7159999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -31630,7 +31652,7 @@
         <v>2722.7249999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -31647,7 +31669,7 @@
         <v>2722.7289999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -31664,7 +31686,7 @@
         <v>2722.7109999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -31681,7 +31703,7 @@
         <v>2722.8130000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -31698,7 +31720,7 @@
         <v>2722.8310000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -31715,7 +31737,7 @@
         <v>2722.86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -31736,7 +31758,7 @@
         <v>0.18599999999969441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -31753,7 +31775,7 @@
         <v>2722.9470000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -31772,7 +31794,7 @@
         <v>2722.931</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>A25+10</f>
         <v>240</v>
@@ -31798,7 +31820,7 @@
         <v>0.30500000000029104</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" ref="A28" si="3">A26+10</f>
         <v>250</v>
@@ -31815,7 +31837,7 @@
         <v>2722.9319999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>A28+10</f>
         <v>260</v>
@@ -31832,7 +31854,7 @@
         <v>2723.0709999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>A29+10</f>
         <v>270</v>
@@ -31849,7 +31871,7 @@
         <v>2723.0630000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>A30+10</f>
         <v>280</v>
@@ -31866,7 +31888,7 @@
         <v>2723.0889999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>A31+10</f>
         <v>290</v>
@@ -31899,15 +31921,15 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -31930,7 +31952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -31950,7 +31972,7 @@
         <v>2723.21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -31967,7 +31989,7 @@
         <v>2723.2060000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A9" si="1">A3+10</f>
         <v>20</v>
@@ -31984,7 +32006,7 @@
         <v>2723.1659999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -32003,7 +32025,7 @@
         <v>2723.0879999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -32020,7 +32042,7 @@
         <v>2723.0709999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -32037,7 +32059,7 @@
         <v>2723.0149999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -32057,7 +32079,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -32083,7 +32105,7 @@
         <v>8.9999999995598046E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A8+10</f>
         <v>70</v>
@@ -32102,7 +32124,7 @@
         <v>2723.4059999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11" si="2">A9+10</f>
         <v>80</v>
@@ -32119,7 +32141,7 @@
         <v>2723.0430000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A11+10</f>
         <v>90</v>
@@ -32136,7 +32158,7 @@
         <v>2723.0340000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" ref="A13:A32" si="3">A12+10</f>
         <v>100</v>
@@ -32153,7 +32175,7 @@
         <v>2723.0329999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -32170,7 +32192,7 @@
         <v>2723.047</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -32187,7 +32209,7 @@
         <v>2723.0839999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -32204,7 +32226,7 @@
         <v>2723.0699999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
@@ -32221,7 +32243,7 @@
         <v>2723.085</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -32238,7 +32260,7 @@
         <v>2723.0830000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -32255,7 +32277,7 @@
         <v>2723.1459999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -32272,7 +32294,7 @@
         <v>2723.16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -32289,7 +32311,7 @@
         <v>2723.1169999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -32306,7 +32328,7 @@
         <v>2723.1120000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -32323,7 +32345,7 @@
         <v>2723.136</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -32340,7 +32362,7 @@
         <v>2723.1459999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -32357,7 +32379,7 @@
         <v>2723.1210000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -32374,7 +32396,7 @@
         <v>2723.1109999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -32393,7 +32415,7 @@
         <v>2723.116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -32410,7 +32432,7 @@
         <v>2723.2159999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -32429,7 +32451,7 @@
         <v>2723.3359999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -32446,7 +32468,7 @@
         <v>2723.37</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -32463,7 +32485,7 @@
         <v>2723.3919999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -32493,15 +32515,15 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -32528,7 +32550,7 @@
         <v>0.20400000000000018</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -32551,7 +32573,7 @@
         <v>2723.4780000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -32581,7 +32603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -32604,7 +32626,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A11" si="1">A4+10</f>
         <v>20</v>
@@ -32629,7 +32651,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -32652,7 +32674,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -32675,7 +32697,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -32698,7 +32720,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -32725,7 +32747,7 @@
         <v>7.444</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -32753,7 +32775,7 @@
         <v>7.4610000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -32790,7 +32812,7 @@
         <v>7.4030000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>80</v>
       </c>
@@ -32819,7 +32841,7 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>A11+10</f>
         <v>90</v>
@@ -32847,7 +32869,7 @@
         <v>7.3659999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A26" si="4">A13+10</f>
         <v>100</v>
@@ -32875,7 +32897,7 @@
         <v>7.3550000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -32903,7 +32925,7 @@
         <v>7.3450000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -32931,7 +32953,7 @@
         <v>7.3439999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -32959,7 +32981,7 @@
         <v>7.351</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -32987,7 +33009,7 @@
         <v>7.4630000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -33015,7 +33037,7 @@
         <v>7.4249999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>160</v>
@@ -33043,7 +33065,7 @@
         <v>7.3290000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>170</v>
@@ -33073,7 +33095,7 @@
         <v>7.3639999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>180</v>
@@ -33104,7 +33126,7 @@
         <v>7.3860000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>190</v>
@@ -33136,7 +33158,7 @@
         <v>7.3469999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>200</v>
@@ -33164,7 +33186,7 @@
         <v>7.391</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>210</v>
@@ -33192,7 +33214,7 @@
         <v>7.3860000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>220</v>
@@ -33222,7 +33244,7 @@
         <v>7.4160000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R27" s="2">
         <f t="shared" si="5"/>
         <v>180</v>
@@ -33235,7 +33257,7 @@
         <v>7.5110000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R28" s="2">
         <f t="shared" si="5"/>
         <v>190</v>
@@ -33248,7 +33270,7 @@
         <v>7.5419999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R29" s="2">
         <f t="shared" si="5"/>
         <v>200</v>
@@ -33261,7 +33283,7 @@
         <v>7.6029999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R30" s="2">
         <f t="shared" si="5"/>
         <v>210</v>
@@ -33274,7 +33296,7 @@
         <v>7.7170000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R31" s="2">
         <f t="shared" si="5"/>
         <v>220</v>
@@ -33302,17 +33324,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33335,7 +33357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -33355,7 +33377,7 @@
         <v>2723.6310000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -33372,7 +33394,7 @@
         <v>2723.6010000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A5" si="1">A3+10</f>
         <v>20</v>
@@ -33391,7 +33413,7 @@
         <v>2723.5000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -33410,7 +33432,7 @@
         <v>2723.4670000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>35</v>
       </c>
@@ -33428,7 +33450,7 @@
         <v>2723.6230000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>A5+10</f>
         <v>40</v>
@@ -33451,7 +33473,7 @@
       </c>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A7+10</f>
         <v>50</v>
@@ -33472,7 +33494,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8+10</f>
         <v>60</v>
@@ -33493,7 +33515,7 @@
       </c>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>70</v>
@@ -33514,7 +33536,7 @@
       </c>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A22" si="2">A10+10</f>
         <v>80</v>
@@ -33538,7 +33560,7 @@
         <v>2725.8340000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -33563,7 +33585,7 @@
         <v>2725.8340000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -33582,7 +33604,7 @@
         <v>2723.4550000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -33599,7 +33621,7 @@
         <v>2723.3390000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -33616,7 +33638,7 @@
         <v>2723.4270000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -33633,7 +33655,7 @@
         <v>2723.4440000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -33652,7 +33674,7 @@
         <v>2723.4520000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -33669,7 +33691,7 @@
         <v>2723.9100000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -33686,7 +33708,7 @@
         <v>2724.1890000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -33703,7 +33725,7 @@
         <v>2724.1960000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -33720,7 +33742,7 @@
         <v>2724.1710000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1D74B-BF3C-4EB1-938C-347B97608B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FFCF3-0FB3-4EA7-9943-8CF2D2295C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="12" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="7" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -725,11 +725,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,6 +808,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2208,7 +2224,7 @@
                   <c:v>2734.1680000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2734.1869999999999</c:v>
+                  <c:v>2734.1570000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2734.114</c:v>
@@ -7924,13 +7940,13 @@
                   <c:v>2723.7240000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2723.7810000000004</c:v>
+                  <c:v>2723.7510000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2723.7290000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2723.7750000000001</c:v>
+                  <c:v>2723.7650000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2723.7700000000004</c:v>
@@ -17181,7 +17197,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17799,7 +17815,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18485,14 +18501,14 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <v>2.0529999999999999</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>2723.7810000000004</v>
+        <f>$F$2-C38</f>
+        <v>2723.7510000000002</v>
       </c>
       <c r="H38">
         <v>2723.7809999999999</v>
@@ -18525,14 +18541,14 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <v>2.0590000000000002</v>
+        <v>2.069</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="6">
         <f>$F$2-C40</f>
-        <v>2723.7750000000001</v>
+        <v>2723.7650000000003</v>
       </c>
       <c r="H40">
         <v>2723.7809999999999</v>
@@ -18827,7 +18843,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18874,11 +18890,11 @@
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>2725.8340000000003</v>
+        <v>2725.8339999999998</v>
       </c>
       <c r="G2" s="6">
         <f>$F$2-C2</f>
-        <v>2724.2590000000005</v>
+        <v>2724.259</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -18895,7 +18911,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G35" si="0">$F$2-C3</f>
-        <v>2724.2190000000005</v>
+        <v>2724.2190000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -18914,7 +18930,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1490000000003</v>
+        <v>2724.1489999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -18931,7 +18947,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0990000000002</v>
+        <v>2724.0989999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -18948,7 +18964,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>2724.09</v>
+        <v>2724.0899999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -18965,7 +18981,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0880000000002</v>
+        <v>2724.0879999999997</v>
       </c>
       <c r="I7" t="s">
         <v>143</v>
@@ -18987,14 +19003,14 @@
       <c r="F8" s="2"/>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0150000000003</v>
+        <v>2724.0149999999999</v>
       </c>
       <c r="H8" s="16">
         <v>2724.2139999999995</v>
       </c>
       <c r="I8" s="5">
         <f>H8-G8</f>
-        <v>0.19899999999915963</v>
+        <v>0.19899999999961437</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19012,7 +19028,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2724.4880000000003</v>
+        <v>2724.4879999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19029,7 +19045,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0240000000003</v>
+        <v>2724.0239999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -19046,7 +19062,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0580000000004</v>
+        <v>2724.058</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19063,7 +19079,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>2724.0970000000002</v>
+        <v>2724.0969999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -19080,7 +19096,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1290000000004</v>
+        <v>2724.1289999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -19097,7 +19113,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1550000000002</v>
+        <v>2724.1549999999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -19114,7 +19130,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1690000000003</v>
+        <v>2724.1689999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -19131,7 +19147,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1790000000001</v>
+        <v>2724.1789999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -19148,7 +19164,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1790000000001</v>
+        <v>2724.1789999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -19165,7 +19181,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1900000000005</v>
+        <v>2724.19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -19182,7 +19198,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2060000000001</v>
+        <v>2724.2059999999997</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -19199,7 +19215,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1520000000005</v>
+        <v>2724.152</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -19216,7 +19232,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>2724.1920000000005</v>
+        <v>2724.192</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -19233,7 +19249,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2180000000003</v>
+        <v>2724.2179999999998</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -19250,7 +19266,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2030000000004</v>
+        <v>2724.203</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -19267,7 +19283,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2220000000002</v>
+        <v>2724.2219999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19286,7 +19302,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2270000000003</v>
+        <v>2724.2269999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -19303,7 +19319,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2580000000003</v>
+        <v>2724.2579999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -19320,7 +19336,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2670000000003</v>
+        <v>2724.2669999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -19337,7 +19353,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="6">
         <f t="shared" si="0"/>
-        <v>2724.2690000000002</v>
+        <v>2724.2689999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -19354,7 +19370,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>2724.3250000000003</v>
+        <v>2724.3249999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -19371,7 +19387,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
-        <v>2724.3830000000003</v>
+        <v>2724.3829999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -19388,7 +19404,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
-        <v>2724.5440000000003</v>
+        <v>2724.5439999999999</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -19405,7 +19421,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>2724.59</v>
+        <v>2724.5899999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -19422,7 +19438,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>2724.6360000000004</v>
+        <v>2724.636</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -19439,7 +19455,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>2724.8690000000001</v>
+        <v>2724.8689999999997</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -19458,7 +19474,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>2724.9440000000004</v>
+        <v>2724.944</v>
       </c>
     </row>
   </sheetData>
@@ -19471,7 +19487,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20023,7 +20039,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20489,8 +20505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9972100E-561A-4BD4-9E56-90A76ED10464}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20768,7 +20784,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$5-C13</f>
         <v>2732.8950000000004</v>
       </c>
       <c r="H13">
@@ -21236,7 +21252,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21353,7 +21369,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>$F$2-C6</f>
         <v>2733.83</v>
       </c>
     </row>
@@ -21837,7 +21853,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21876,18 +21892,16 @@
         <v>145</v>
       </c>
       <c r="B2" s="6">
-        <v>1.9950000000000001</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>1.5580000000000001</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="19">
         <f>$G$2+B2</f>
-        <v>2735.5099999999998</v>
+        <v>2735.96</v>
       </c>
       <c r="G2" s="6">
         <v>2733.5149999999999</v>
@@ -21908,7 +21922,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <f>$F$2-C3</f>
-        <v>2733.2649999999999</v>
+        <v>2733.7150000000001</v>
+      </c>
+      <c r="H3">
+        <f>C3-0.5</f>
+        <v>1.7450000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21926,8 +21944,12 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G22" si="0">$F$2-C4</f>
-        <v>2733.27</v>
+        <f>$F$2-C4</f>
+        <v>2733.7200000000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H22" si="0">C4-0.5</f>
+        <v>1.7400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21959,8 +21981,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0559999999996</v>
+        <f t="shared" ref="G4:G22" si="2">$F$2-C6</f>
+        <v>2733.5059999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.9540000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -21976,8 +22002,12 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.087</v>
+        <f t="shared" si="2"/>
+        <v>2733.5370000000003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.923</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21993,8 +22023,12 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0629999999996</v>
+        <f t="shared" si="2"/>
+        <v>2733.5129999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.9470000000000001</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>116</v>
@@ -22013,8 +22047,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.1389999999997</v>
+        <f t="shared" si="2"/>
+        <v>2733.5889999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.871</v>
       </c>
       <c r="I9" s="11">
         <f>C11-C12</f>
@@ -22034,8 +22072,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.1259999999997</v>
+        <f t="shared" si="2"/>
+        <v>2733.576</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.8839999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -22053,8 +22095,12 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0959999999995</v>
+        <f t="shared" si="2"/>
+        <v>2733.5459999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.9140000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -22071,8 +22117,12 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.2149999999997</v>
+        <f t="shared" si="2"/>
+        <v>2733.665</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.7949999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -22088,13 +22138,17 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0339999999997</v>
+        <f t="shared" si="2"/>
+        <v>2733.4839999999999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.976</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" ref="A14:A22" si="2">A13+10</f>
+        <f t="shared" ref="A14:A22" si="3">A13+10</f>
         <v>100</v>
       </c>
       <c r="B14" s="2"/>
@@ -22105,13 +22159,17 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>2732.9839999999999</v>
+        <f t="shared" si="2"/>
+        <v>2733.4340000000002</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.0259999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B15" s="2"/>
@@ -22122,13 +22180,17 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>2732.991</v>
+        <f t="shared" si="2"/>
+        <v>2733.4410000000003</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.0190000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B16" s="2"/>
@@ -22141,13 +22203,17 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.1229999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.5729999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B17" s="2"/>
@@ -22158,13 +22224,17 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0759999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.5259999999998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.9340000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B18" s="2"/>
@@ -22175,13 +22245,17 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.0849999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.5349999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.9249999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B19" s="2"/>
@@ -22192,13 +22266,17 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.1809999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.6309999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.8290000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B20" s="2"/>
@@ -22209,13 +22287,17 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.1949999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.645</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B21" s="2"/>
@@ -22226,13 +22308,17 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>2733.6530000000002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.8069999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B22" s="2"/>
@@ -22245,8 +22331,12 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.2349999999997</v>
+        <f t="shared" si="2"/>
+        <v>2733.6849999999999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.7749999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -22259,7 +22349,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22678,7 +22768,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23387,7 +23477,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23584,14 +23674,14 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>1.952</v>
+        <v>1.982</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>2734.1869999999999</v>
+        <v>2734.1570000000002</v>
       </c>
       <c r="H10">
         <v>2734.2060000000001</v>
@@ -23929,7 +24019,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24245,14 +24335,14 @@
         <v>2721.768</v>
       </c>
       <c r="H17" s="17">
-        <v>2721.7619999999997</v>
+        <v>2721.7620000000002</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>142</v>
       </c>
       <c r="J17">
         <f>H17-G17</f>
-        <v>-6.0000000003128662E-3</v>
+        <v>-5.9999999998581188E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -24515,7 +24605,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24956,7 +25046,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25639,7 +25729,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26376,8 +26466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62944037-0C0F-454E-8D1D-821A1F229F1C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27004,8 +27094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C12D5E-274C-49F4-AC1E-9E3A5CF8DFEE}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27528,8 +27618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15857BB-7009-42F0-BB33-F587ED47BBA2}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27595,7 +27685,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="6">
-        <v>2.411</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -27604,7 +27694,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6">
         <f>$G$2+B2</f>
-        <v>2739.8669999999997</v>
+        <v>2740.1469999999995</v>
       </c>
       <c r="G2" s="6">
         <f>2737.593-D2</f>
@@ -27614,14 +27704,14 @@
         <v>144</v>
       </c>
       <c r="L2" s="2">
-        <v>2.5449999999999999</v>
+        <v>3.165</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="6">
         <f>Q2+L2</f>
-        <v>2739.56</v>
+        <v>2740.18</v>
       </c>
       <c r="Q2" s="6">
         <v>2737.0149999999999</v>
@@ -27642,7 +27732,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="6">
         <f>$F$2-C3</f>
-        <v>2738.2489999999998</v>
+        <v>2738.5289999999995</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>131</v>
@@ -27658,7 +27748,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="2">
         <f>$P$2-M3</f>
-        <v>2738.0369999999998</v>
+        <v>2738.6569999999997</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -27675,7 +27765,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="6">
         <f t="shared" ref="G4:G26" si="0">$F$2-C4</f>
-        <v>2738.2129999999997</v>
+        <v>2738.4929999999995</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>133</v>
@@ -27689,7 +27779,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="2">
         <f t="shared" ref="Q4:Q29" si="1">$P$2-M4</f>
-        <v>2738.0320000000002</v>
+        <v>2738.652</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -27706,7 +27796,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0629999999996</v>
+        <v>2738.3429999999994</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>134</v>
@@ -27720,7 +27810,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="2">
         <f t="shared" si="1"/>
-        <v>2738</v>
+        <v>2738.62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -27737,7 +27827,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0029999999997</v>
+        <v>2738.2829999999994</v>
       </c>
       <c r="K6" s="2">
         <v>1.2</v>
@@ -27751,7 +27841,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="2">
         <f t="shared" si="1"/>
-        <v>2737.9639999999999</v>
+        <v>2738.5839999999998</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -27768,7 +27858,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9969999999998</v>
+        <v>2738.2769999999996</v>
       </c>
       <c r="K7" s="2">
         <v>1.3</v>
@@ -27782,7 +27872,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="2">
         <f t="shared" si="1"/>
-        <v>2737.92</v>
+        <v>2738.54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -27801,7 +27891,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9769999999999</v>
+        <v>2738.2569999999996</v>
       </c>
       <c r="K8" s="2">
         <v>1.4</v>
@@ -27815,7 +27905,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>2737.91</v>
+        <v>2738.5299999999997</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -27832,7 +27922,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9609999999998</v>
+        <v>2738.2409999999995</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>117</v>
@@ -27849,7 +27939,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8910000000001</v>
+        <v>2738.511</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -27866,7 +27956,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9929999999999</v>
+        <v>2738.2729999999997</v>
       </c>
       <c r="I10" s="11">
         <f>C20-C21</f>
@@ -27886,7 +27976,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>2737.7620000000002</v>
+        <v>2738.3820000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -27903,7 +27993,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9719999999998</v>
+        <v>2738.2519999999995</v>
       </c>
       <c r="K11" s="2">
         <v>1.7</v>
@@ -27917,7 +28007,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>2737.7359999999999</v>
+        <v>2738.3559999999998</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -27934,7 +28024,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0539999999996</v>
+        <v>2738.3339999999994</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>130</v>
@@ -27953,7 +28043,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8249999999998</v>
+        <v>2738.4449999999997</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -27970,7 +28060,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0419999999999</v>
+        <v>2738.3219999999997</v>
       </c>
       <c r="I13" s="11">
         <f>M17-M18</f>
@@ -27988,7 +28078,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>2737.806</v>
+        <v>2738.4259999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -28007,7 +28097,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1649999999995</v>
+        <v>2738.4449999999993</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
@@ -28021,7 +28111,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
-        <v>2737.7150000000001</v>
+        <v>2738.335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -28038,7 +28128,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1319999999996</v>
+        <v>2738.4119999999994</v>
       </c>
       <c r="K15" s="2">
         <v>2.1</v>
@@ -28052,7 +28142,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>2737.7359999999999</v>
+        <v>2738.3559999999998</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -28069,7 +28159,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1189999999997</v>
+        <v>2738.3989999999994</v>
       </c>
       <c r="K16" s="2">
         <v>2.2000000000000002</v>
@@ -28083,7 +28173,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="2">
         <f t="shared" si="1"/>
-        <v>2737.6979999999999</v>
+        <v>2738.3179999999998</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -28100,7 +28190,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0509999999999</v>
+        <v>2738.3309999999997</v>
       </c>
       <c r="K17" s="2">
         <v>2.25</v>
@@ -28116,7 +28206,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>2737.6950000000002</v>
+        <v>2738.3150000000001</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -28133,7 +28223,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0319999999997</v>
+        <v>2738.3119999999994</v>
       </c>
       <c r="K18" s="2">
         <v>2.25</v>
@@ -28149,7 +28239,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8879999999999</v>
+        <v>2738.5079999999998</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -28166,7 +28256,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9549999999999</v>
+        <v>2738.2349999999997</v>
       </c>
       <c r="K19" s="2">
         <v>2.2999999999999998</v>
@@ -28180,7 +28270,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="2">
         <f t="shared" si="1"/>
-        <v>2737.7</v>
+        <v>2738.3199999999997</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -28199,7 +28289,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>2737.9459999999999</v>
+        <v>2738.2259999999997</v>
       </c>
       <c r="K20" s="2">
         <v>2.4</v>
@@ -28215,7 +28305,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8150000000001</v>
+        <v>2738.4349999999999</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -28233,7 +28323,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>2738.194</v>
+        <v>2738.4739999999997</v>
       </c>
       <c r="K21" s="2">
         <v>2.5</v>
@@ -28247,7 +28337,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="2">
         <f t="shared" si="1"/>
-        <v>2737.72</v>
+        <v>2738.3399999999997</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -28266,7 +28356,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>2738.0119999999997</v>
+        <v>2738.2919999999995</v>
       </c>
       <c r="K22" s="2">
         <v>2.6</v>
@@ -28280,7 +28370,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8049999999998</v>
+        <v>2738.4249999999997</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -28297,7 +28387,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1359999999995</v>
+        <v>2738.4159999999993</v>
       </c>
       <c r="K23" s="2">
         <v>2.7</v>
@@ -28311,7 +28401,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="2">
         <f t="shared" si="1"/>
-        <v>2737.79</v>
+        <v>2738.41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -28328,7 +28418,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1879999999996</v>
+        <v>2738.4679999999994</v>
       </c>
       <c r="K24" s="2">
         <v>2.8</v>
@@ -28342,7 +28432,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="2">
         <f t="shared" si="1"/>
-        <v>2737.8049999999998</v>
+        <v>2738.4249999999997</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -28359,7 +28449,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1829999999995</v>
+        <v>2738.4629999999993</v>
       </c>
       <c r="K25" s="2">
         <v>2.9</v>
@@ -28375,7 +28465,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="2">
         <f t="shared" si="1"/>
-        <v>2737.817</v>
+        <v>2738.4369999999999</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -28394,7 +28484,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>2738.1769999999997</v>
+        <v>2738.4569999999994</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>137</v>
@@ -28408,7 +28498,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="2">
         <f t="shared" si="1"/>
-        <v>2737.84</v>
+        <v>2738.46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -28431,7 +28521,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="2">
         <f t="shared" si="1"/>
-        <v>2737.915</v>
+        <v>2738.5349999999999</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -28449,7 +28539,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="2">
         <f t="shared" si="1"/>
-        <v>2737.9349999999999</v>
+        <v>2738.5549999999998</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -28467,7 +28557,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="2">
         <f t="shared" si="1"/>
-        <v>2737.9749999999999</v>
+        <v>2738.5949999999998</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -28491,8 +28581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278C6A75-EB2C-4F06-8258-6CEC79F84880}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29313,8 +29403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF970D2A-25F7-43D8-9437-28DE93019D3F}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30309,7 +30399,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30334,7 +30424,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -30376,19 +30466,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6">
-        <v>3.226</v>
+      <c r="C2" s="2">
+        <v>3.3260000000000001</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="6">
-        <v>2725.9459999999995</v>
+        <v>2725.9459999999999</v>
       </c>
       <c r="G2" s="6">
         <f>$F$2-C2</f>
-        <v>2722.7199999999993</v>
+        <v>2722.62</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>121</v>
@@ -30416,14 +30506,14 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
-        <v>3.2480000000000002</v>
+        <v>3.3480000000000003</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G31" si="0">$F$2-C3</f>
-        <v>2722.6979999999994</v>
+        <f t="shared" ref="G3:G12" si="0">$F$2-C3</f>
+        <v>2722.598</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -30449,14 +30539,14 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2">
-        <v>3.2469999999999999</v>
+        <v>3.347</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6989999999996</v>
+        <v>2722.5989999999997</v>
       </c>
       <c r="K4" s="2">
         <v>10</v>
@@ -30480,7 +30570,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <v>3.3149999999999999</v>
+        <v>3.415</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -30489,7 +30579,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6309999999994</v>
+        <v>2722.5309999999999</v>
       </c>
       <c r="K5" s="2">
         <v>20</v>
@@ -30513,14 +30603,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
-        <v>3.3159999999999998</v>
+        <v>3.4159999999999999</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6299999999997</v>
+        <v>2722.5299999999997</v>
       </c>
       <c r="K6" s="2">
         <v>30</v>
@@ -30544,14 +30634,14 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
-        <v>3.331</v>
+        <v>3.431</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6149999999993</v>
+        <v>2722.5149999999999</v>
       </c>
       <c r="K7" s="2">
         <v>40</v>
@@ -30575,14 +30665,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>3.3620000000000001</v>
+        <v>3.4620000000000002</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>2722.5839999999994</v>
+        <v>2722.4839999999999</v>
       </c>
       <c r="K8" s="2">
         <v>50</v>
@@ -30606,14 +30696,14 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>3.3319999999999999</v>
+        <v>3.4319999999999999</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6139999999996</v>
+        <v>2722.5140000000001</v>
       </c>
       <c r="K9" s="2">
         <v>60</v>
@@ -30643,14 +30733,14 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
-        <v>3.3370000000000002</v>
+        <v>3.4370000000000003</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6089999999995</v>
+        <v>2722.509</v>
       </c>
       <c r="K10" s="2">
         <v>70</v>
@@ -30683,14 +30773,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
-        <v>3.3450000000000002</v>
+        <v>3.4450000000000003</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>2722.6009999999997</v>
+        <v>2722.5009999999997</v>
       </c>
       <c r="K11" s="2">
         <v>70</v>
@@ -30716,14 +30806,14 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>3.76</v>
+        <v>3.86</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>2722.1859999999992</v>
+        <v>2722.0859999999998</v>
       </c>
       <c r="K12" s="2">
         <v>80</v>
@@ -30778,7 +30868,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
-        <v>3.3330000000000002</v>
+        <v>3.4330000000000003</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -30786,12 +30876,12 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6129999999994</v>
+        <f>$F$2-C14</f>
+        <v>2722.5129999999999</v>
       </c>
       <c r="I14" s="11">
-        <f>C14-C15</f>
-        <v>0.13900000000000023</v>
+        <f>G15-G14</f>
+        <v>0.13900000000012369</v>
       </c>
       <c r="K14" s="2">
         <v>100</v>
@@ -30814,7 +30904,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
-        <v>3.194</v>
+        <v>3.294</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -30822,8 +30912,8 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.7519999999995</v>
+        <f t="shared" ref="G15:G31" si="3">$F$2-C15</f>
+        <v>2722.652</v>
       </c>
       <c r="K15" s="2">
         <v>110</v>
@@ -30847,14 +30937,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
-        <v>3.3559999999999999</v>
+        <v>3.456</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.5899999999992</v>
+        <f t="shared" si="3"/>
+        <v>2722.49</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>130</v>
@@ -30876,19 +30966,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" ref="A17:A31" si="3">A16+10</f>
+        <f t="shared" ref="A17:A31" si="4">A16+10</f>
         <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
-        <v>3.355</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.5909999999994</v>
+        <f t="shared" si="3"/>
+        <v>2722.491</v>
       </c>
       <c r="I17" s="11">
         <f>M10-M11</f>
@@ -30913,19 +31003,19 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
-        <v>3.3439999999999999</v>
+        <v>3.444</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6019999999994</v>
+        <f t="shared" si="3"/>
+        <v>2722.502</v>
       </c>
       <c r="K18" s="2">
         <v>140</v>
@@ -30944,19 +31034,19 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
-        <v>3.3159999999999998</v>
+        <v>3.4159999999999999</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6299999999997</v>
+        <f t="shared" si="3"/>
+        <v>2722.5299999999997</v>
       </c>
       <c r="K19" s="2">
         <v>150</v>
@@ -30975,12 +31065,12 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>3.3140000000000001</v>
+        <v>3.4140000000000001</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -30988,8 +31078,8 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6319999999996</v>
+        <f t="shared" si="3"/>
+        <v>2722.5319999999997</v>
       </c>
       <c r="K20" s="2">
         <v>160</v>
@@ -31008,19 +31098,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
-        <v>3.2879999999999998</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6579999999994</v>
+        <f t="shared" si="3"/>
+        <v>2722.558</v>
       </c>
       <c r="K21" s="2">
         <v>170</v>
@@ -31039,19 +31129,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>3.2890000000000001</v>
+        <v>3.3890000000000002</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6569999999992</v>
+        <f t="shared" si="3"/>
+        <v>2722.5569999999998</v>
       </c>
       <c r="K22" s="2">
         <v>180</v>
@@ -31070,19 +31160,19 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <v>3.2549999999999999</v>
+        <v>3.355</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6909999999993</v>
+        <f t="shared" si="3"/>
+        <v>2722.5909999999999</v>
       </c>
       <c r="K23" s="2">
         <v>190</v>
@@ -31101,19 +31191,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <v>3.274</v>
+        <v>3.3740000000000001</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6719999999996</v>
+        <f t="shared" si="3"/>
+        <v>2722.5720000000001</v>
       </c>
       <c r="K24" s="2">
         <v>200</v>
@@ -31132,36 +31222,36 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
-        <v>3.2679999999999998</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6779999999994</v>
+        <f t="shared" si="3"/>
+        <v>2722.578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
-        <v>3.2509999999999999</v>
+        <v>3.351</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.6949999999993</v>
+        <f t="shared" si="3"/>
+        <v>2722.5949999999998</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>129</v>
@@ -31175,30 +31265,30 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
-        <v>3.2410000000000001</v>
+        <v>3.3410000000000002</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.7049999999995</v>
+        <f t="shared" si="3"/>
+        <v>2722.605</v>
       </c>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
-        <v>3.0190000000000001</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -31206,55 +31296,55 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.9269999999997</v>
+        <f t="shared" si="3"/>
+        <v>2722.8269999999998</v>
       </c>
       <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
-        <v>3.0139999999999998</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.9319999999993</v>
+        <f t="shared" si="3"/>
+        <v>2722.8319999999999</v>
       </c>
       <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
-        <v>2.9790000000000001</v>
+        <v>3.0790000000000002</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>2722.9669999999996</v>
+        <f t="shared" si="3"/>
+        <v>2722.8669999999997</v>
       </c>
       <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <v>2.9319999999999999</v>
+        <v>3.032</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -31262,8 +31352,8 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>2723.0139999999997</v>
+        <f t="shared" si="3"/>
+        <v>2722.9139999999998</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
@@ -31288,7 +31378,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31918,7 +32008,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32512,7 +32602,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33321,7 +33411,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FFCF3-0FB3-4EA7-9943-8CF2D2295C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD2D8C-F492-4CF4-BC23-E43D9896A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="7" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" firstSheet="7" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
     <t>bottom piezo 6</t>
   </si>
   <si>
-    <t>top piezo 6</t>
+    <t>top piezo 6 c</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,16 +801,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -900,7 +897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1290,7 +1287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680724640"/>
@@ -1352,7 +1349,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680722144"/>
@@ -1400,7 +1397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1932,7 +1929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568800591"/>
@@ -1994,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015223983"/>
@@ -2042,7 +2039,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2505,7 +2502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="583681535"/>
@@ -2567,7 +2564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811039471"/>
@@ -2615,7 +2612,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3171,7 +3168,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701696767"/>
@@ -3233,7 +3230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869339711"/>
@@ -3281,7 +3278,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3828,7 +3825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584295391"/>
@@ -3890,7 +3887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869286815"/>
@@ -3938,7 +3935,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3989,7 +3986,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4292,7 +4289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949856"/>
@@ -4354,7 +4351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949024"/>
@@ -4402,7 +4399,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5018,7 +5015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043194127"/>
@@ -5080,7 +5077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015234655"/>
@@ -5128,7 +5125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5777,7 +5774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1810760255"/>
@@ -5839,7 +5836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811056175"/>
@@ -5887,7 +5884,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6418,7 +6415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993662911"/>
@@ -6480,7 +6477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811060815"/>
@@ -6528,7 +6525,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6903,7 +6900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273530959"/>
@@ -6966,7 +6963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273528463"/>
@@ -7014,7 +7011,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7065,7 +7062,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7483,7 +7480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1946070992"/>
@@ -7545,7 +7542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1645237152"/>
@@ -7593,7 +7590,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8251,7 +8248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1988108927"/>
@@ -8313,7 +8310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811050607"/>
@@ -8361,7 +8358,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8872,7 +8869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008535167"/>
@@ -8934,7 +8931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811067311"/>
@@ -8982,7 +8979,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21252,7 +21249,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21981,7 +21978,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G4:G22" si="2">$F$2-C6</f>
+        <f t="shared" ref="G6:G22" si="2">$F$2-C6</f>
         <v>2733.5059999999999</v>
       </c>
       <c r="H6">
@@ -26466,8 +26463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62944037-0C0F-454E-8D1D-821A1F229F1C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27054,11 +27051,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="2">
         <v>410</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="22">
+      <c r="C35" s="2">
         <v>2.4750000000000001</v>
       </c>
       <c r="D35" s="3"/>
@@ -27070,11 +27067,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="2">
         <v>430</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="22">
+      <c r="C36" s="2">
         <v>2.2749999999999999</v>
       </c>
       <c r="D36" s="3"/>
@@ -27094,8 +27091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C12D5E-274C-49F4-AC1E-9E3A5CF8DFEE}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27618,7 +27615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15857BB-7009-42F0-BB33-F587ED47BBA2}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -30424,7 +30421,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD2D8C-F492-4CF4-BC23-E43D9896A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3082D-E847-4C25-AD8B-4B69B0E1B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="804" firstSheet="7" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-24135" yWindow="315" windowWidth="22260" windowHeight="14940" tabRatio="804" firstSheet="12" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="165">
   <si>
     <t>Distance</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Top of  rock</t>
   </si>
   <si>
-    <t>3m</t>
-  </si>
-  <si>
     <t>Vegetation</t>
   </si>
   <si>
@@ -605,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -725,19 +722,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -801,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -897,7 +881,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1287,7 +1271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680724640"/>
@@ -1349,7 +1333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680722144"/>
@@ -1397,7 +1381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1929,7 +1913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568800591"/>
@@ -1991,7 +1975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015223983"/>
@@ -2039,7 +2023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2502,7 +2486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="583681535"/>
@@ -2564,7 +2548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811039471"/>
@@ -2612,7 +2596,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3168,7 +3152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701696767"/>
@@ -3230,7 +3214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869339711"/>
@@ -3278,7 +3262,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3825,7 +3809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584295391"/>
@@ -3887,7 +3871,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869286815"/>
@@ -3935,7 +3919,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3986,7 +3970,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4289,7 +4273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949856"/>
@@ -4351,7 +4335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949024"/>
@@ -4399,7 +4383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5015,7 +4999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043194127"/>
@@ -5077,7 +5061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015234655"/>
@@ -5125,7 +5109,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5774,7 +5758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1810760255"/>
@@ -5836,7 +5820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811056175"/>
@@ -5884,7 +5868,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6415,7 +6399,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993662911"/>
@@ -6477,7 +6461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811060815"/>
@@ -6525,7 +6509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6900,7 +6884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273530959"/>
@@ -6963,7 +6947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273528463"/>
@@ -7011,7 +6995,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7062,7 +7046,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7480,7 +7464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1946070992"/>
@@ -7542,7 +7526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1645237152"/>
@@ -7590,7 +7574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8248,7 +8232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1988108927"/>
@@ -8310,7 +8294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811050607"/>
@@ -8358,7 +8342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8869,7 +8853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008535167"/>
@@ -8931,7 +8915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811067311"/>
@@ -8979,7 +8963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18981,7 +18965,7 @@
         <v>2724.0879999999997</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -19484,7 +19468,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19566,7 +19550,10 @@
         <f>A3+10</f>
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>A4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2">
         <v>2.1850000000000001</v>
       </c>
@@ -19583,7 +19570,10 @@
         <f t="shared" ref="A5:A18" si="1">A4+10</f>
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B29" si="2">A5/100</f>
+        <v>0.2</v>
+      </c>
       <c r="C5" s="2">
         <v>2.25</v>
       </c>
@@ -19600,7 +19590,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>2.238</v>
       </c>
@@ -19617,7 +19610,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
       <c r="C7" s="2">
         <v>2.2360000000000002</v>
       </c>
@@ -19634,7 +19630,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="C8" s="2">
         <v>2.327</v>
       </c>
@@ -19653,7 +19652,10 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
       <c r="C9" s="2">
         <v>2.3849999999999998</v>
       </c>
@@ -19670,7 +19672,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
       <c r="C10" s="2">
         <v>2.3679999999999999</v>
       </c>
@@ -19687,7 +19692,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
       <c r="C11" s="2">
         <v>2.34</v>
       </c>
@@ -19707,7 +19715,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
       <c r="C12" s="2">
         <v>2.3660000000000001</v>
       </c>
@@ -19728,7 +19739,10 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="C13" s="2">
         <v>2.3860000000000001</v>
       </c>
@@ -19745,7 +19759,10 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C14" s="2">
         <v>2.4049999999999998</v>
       </c>
@@ -19762,7 +19779,10 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
       <c r="C15" s="2">
         <v>2.4249999999999998</v>
       </c>
@@ -19779,7 +19799,10 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
       <c r="C16" s="2">
         <v>2.4159999999999999</v>
       </c>
@@ -19796,7 +19819,10 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
       <c r="C17" s="2">
         <v>2.4209999999999998</v>
       </c>
@@ -19813,7 +19839,10 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="C18" s="2">
         <v>2.4590000000000001</v>
       </c>
@@ -19831,7 +19860,10 @@
       <c r="A19" s="2">
         <v>150</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="C19" s="2">
         <v>2.234</v>
       </c>
@@ -19857,7 +19889,10 @@
         <f>A18+10</f>
         <v>160</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
       <c r="C20" s="2">
         <v>2.3679999999999999</v>
       </c>
@@ -19873,10 +19908,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" ref="A21:A26" si="2">A20+10</f>
+        <f t="shared" ref="A21:A26" si="3">A20+10</f>
         <v>170</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
       <c r="C21" s="2">
         <v>2.2250000000000001</v>
       </c>
@@ -19890,10 +19928,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="B22" s="2">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>1.8</v>
+      </c>
       <c r="C22" s="2">
         <v>2.2240000000000002</v>
       </c>
@@ -19907,10 +19948,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="B23" s="2">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>1.9</v>
+      </c>
       <c r="C23" s="2">
         <v>2.0070000000000001</v>
       </c>
@@ -19924,10 +19968,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B24" s="2">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>2</v>
+      </c>
       <c r="C24" s="2">
         <v>2.105</v>
       </c>
@@ -19941,10 +19988,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B25" s="2">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>2.1</v>
+      </c>
       <c r="C25" s="2">
         <v>2.1110000000000002</v>
       </c>
@@ -19958,10 +20008,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B26" s="2">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="C26" s="2">
         <v>2.0059999999999998</v>
       </c>
@@ -19975,10 +20028,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A29" si="3">A26+10</f>
+        <f t="shared" ref="A27:A29" si="4">A26+10</f>
         <v>230</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
       <c r="C27" s="2">
         <v>1.968</v>
       </c>
@@ -19992,10 +20048,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
       <c r="C28" s="2">
         <v>1.776</v>
       </c>
@@ -20009,10 +20068,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
       <c r="C29" s="2">
         <v>1.5529999999999999</v>
       </c>
@@ -20036,7 +20098,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B10" activeCellId="1" sqref="B3:B8 B10:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20097,7 +20159,10 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <f>A3/100</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>2.4750000000000001</v>
       </c>
@@ -20116,7 +20181,10 @@
         <f>A3+10</f>
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B24" si="0">A4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2">
         <v>2.5249999999999999</v>
       </c>
@@ -20124,16 +20192,19 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G24" si="0">$F$2-C4</f>
+        <f t="shared" ref="G4:G24" si="1">$F$2-C4</f>
         <v>2725.232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A8" si="1">A4+10</f>
+        <f t="shared" ref="A5:A8" si="2">A4+10</f>
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="C5" s="2">
         <v>2.4319999999999999</v>
       </c>
@@ -20141,16 +20212,19 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.3250000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>2.5939999999999999</v>
       </c>
@@ -20158,16 +20232,19 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.163</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="C7" s="2">
         <v>2.629</v>
       </c>
@@ -20175,16 +20252,19 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1280000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C8" s="2">
         <v>2.653</v>
       </c>
@@ -20194,7 +20274,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1040000000003</v>
       </c>
     </row>
@@ -20202,7 +20282,10 @@
       <c r="A9" s="2">
         <v>50</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C9" s="2">
         <v>2.419</v>
       </c>
@@ -20212,7 +20295,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.3380000000002</v>
       </c>
       <c r="H9" s="18">
@@ -20223,7 +20306,7 @@
         <v>-0.62400000000070577</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -20231,7 +20314,10 @@
         <f>A8+10</f>
         <v>60</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="C10" s="2">
         <v>2.5760000000000001</v>
       </c>
@@ -20239,7 +20325,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.181</v>
       </c>
     </row>
@@ -20248,7 +20334,10 @@
         <f>A10+10</f>
         <v>70</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="C11" s="2">
         <v>2.6139999999999999</v>
       </c>
@@ -20256,7 +20345,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.143</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -20265,10 +20354,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" ref="A12:A24" si="2">A11+10</f>
+        <f t="shared" ref="A12:A24" si="3">A11+10</f>
         <v>80</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
       <c r="C12" s="2">
         <v>2.6040000000000001</v>
       </c>
@@ -20276,7 +20368,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1530000000002</v>
       </c>
       <c r="I12" s="11">
@@ -20286,10 +20378,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="C13" s="2">
         <v>2.6110000000000002</v>
       </c>
@@ -20297,17 +20392,20 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1460000000002</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
         <v>2.6139999999999999</v>
       </c>
@@ -20315,16 +20413,19 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.143</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C15" s="2">
         <v>2.5680000000000001</v>
       </c>
@@ -20332,16 +20433,19 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1889999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="C16" s="2">
         <v>2.5710000000000002</v>
       </c>
@@ -20349,16 +20453,19 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1860000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="C17" s="2">
         <v>2.601</v>
       </c>
@@ -20366,16 +20473,19 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1559999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
       <c r="C18" s="2">
         <v>2.5640000000000001</v>
       </c>
@@ -20383,16 +20493,19 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1930000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="C19" s="2">
         <v>2.5609999999999999</v>
       </c>
@@ -20402,16 +20515,19 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.1959999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
       <c r="C20" s="2">
         <v>2.496</v>
       </c>
@@ -20419,16 +20535,19 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.261</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
       <c r="C21" s="2">
         <v>2.4820000000000002</v>
       </c>
@@ -20436,16 +20555,19 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.2750000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="C22" s="2">
         <v>2.4369999999999998</v>
       </c>
@@ -20453,16 +20575,19 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
       <c r="C23" s="2">
         <v>2.3660000000000001</v>
       </c>
@@ -20470,16 +20595,19 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.3910000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C24" s="2">
         <v>2.1949999999999998</v>
       </c>
@@ -20489,7 +20617,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2725.5619999999999</v>
       </c>
     </row>
@@ -21142,7 +21270,7 @@
         <v>2733.5150000000008</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -21288,7 +21416,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="6">
         <v>2.4950000000000001</v>
@@ -21314,7 +21442,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -21428,7 +21556,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -21446,7 +21574,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -21608,7 +21736,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -21626,7 +21754,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -21664,7 +21792,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -21682,7 +21810,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -21732,7 +21860,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -21750,7 +21878,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -21832,7 +21960,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -21850,7 +21978,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21886,7 +22014,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="6">
         <v>2.4449999999999998</v>
@@ -21908,7 +22036,10 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <f>A3/100</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>2.2450000000000001</v>
       </c>
@@ -21931,7 +22062,10 @@
         <f>A3+10</f>
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B22" si="0">A4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2">
         <v>2.2400000000000002</v>
       </c>
@@ -21945,32 +22079,41 @@
         <v>2733.7200000000003</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H22" si="0">C4-0.5</f>
+        <f t="shared" ref="H4:H22" si="1">C4-0.5</f>
         <v>1.7400000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A11" si="1">A4+10</f>
+        <f t="shared" ref="A5:A11" si="2">A4+10</f>
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G22" si="3">$F$2-C5</f>
+        <v>2733.66</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>2.4540000000000002</v>
       </c>
@@ -21978,20 +22121,23 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G22" si="2">$F$2-C6</f>
+        <f t="shared" si="3"/>
         <v>2733.5059999999999</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9540000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="C7" s="2">
         <v>2.423</v>
       </c>
@@ -21999,20 +22145,23 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5370000000003</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.923</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C8" s="2">
         <v>2.4470000000000001</v>
       </c>
@@ -22020,11 +22169,11 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5129999999999</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9470000000000001</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -22033,10 +22182,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="C9" s="2">
         <v>2.371</v>
       </c>
@@ -22044,11 +22196,11 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5889999999999</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.871</v>
       </c>
       <c r="I9" s="11">
@@ -22058,10 +22210,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="C10" s="2">
         <v>2.3839999999999999</v>
       </c>
@@ -22069,20 +22224,23 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.576</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8839999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
       <c r="C11" s="2">
         <v>2.4140000000000001</v>
       </c>
@@ -22092,11 +22250,11 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5459999999998</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9140000000000001</v>
       </c>
     </row>
@@ -22104,7 +22262,10 @@
       <c r="A12" s="5">
         <v>80</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
       <c r="C12" s="2">
         <v>2.2949999999999999</v>
       </c>
@@ -22114,11 +22275,11 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.665</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7949999999999999</v>
       </c>
     </row>
@@ -22127,7 +22288,10 @@
         <f>A11+10</f>
         <v>90</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="C13" s="2">
         <v>2.476</v>
       </c>
@@ -22135,20 +22299,23 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.4839999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.976</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" ref="A14:A22" si="3">A13+10</f>
+        <f t="shared" ref="A14:A22" si="4">A13+10</f>
         <v>100</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
         <v>2.5259999999999998</v>
       </c>
@@ -22156,20 +22323,23 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.4340000000002</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0259999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C15" s="2">
         <v>2.5190000000000001</v>
       </c>
@@ -22177,20 +22347,23 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.4410000000003</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0190000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="C16" s="2">
         <v>2.387</v>
       </c>
@@ -22200,20 +22373,23 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5729999999999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.887</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="C17" s="2">
         <v>2.4340000000000002</v>
       </c>
@@ -22221,20 +22397,23 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5259999999998</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9340000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
       <c r="C18" s="2">
         <v>2.4249999999999998</v>
       </c>
@@ -22242,20 +22421,23 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.5349999999999</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9249999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="C19" s="2">
         <v>2.3290000000000002</v>
       </c>
@@ -22263,20 +22445,23 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.6309999999999</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8290000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
       <c r="C20" s="2">
         <v>2.3149999999999999</v>
       </c>
@@ -22284,20 +22469,23 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.645</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8149999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
       <c r="C21" s="2">
         <v>2.3069999999999999</v>
       </c>
@@ -22305,20 +22493,23 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.6530000000002</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8069999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="C22" s="2">
         <v>2.2749999999999999</v>
       </c>
@@ -22328,11 +22519,11 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2733.6849999999999</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
     </row>
@@ -22346,7 +22537,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" activeCellId="1" sqref="B2:B7 B9:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22384,7 +22575,10 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <f>A2/100</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="6">
         <v>1.91</v>
       </c>
@@ -22405,7 +22599,10 @@
         <f>A2+10</f>
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B22" si="0">A3/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C3" s="2">
         <v>1.962</v>
       </c>
@@ -22415,16 +22612,19 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G22" si="0">$F$2-C3</f>
+        <f t="shared" ref="G3:G22" si="1">$F$2-C3</f>
         <v>2734.0450000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A7" si="1">A3+10</f>
+        <f t="shared" ref="A4:A7" si="2">A3+10</f>
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="C4" s="2">
         <v>2.105</v>
       </c>
@@ -22432,16 +22632,19 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.902</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="C5" s="2">
         <v>2.169</v>
       </c>
@@ -22449,16 +22652,19 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8380000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="C6" s="2">
         <v>2.1549999999999998</v>
       </c>
@@ -22466,16 +22672,19 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8519999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C7" s="2">
         <v>2.1960000000000002</v>
       </c>
@@ -22485,7 +22694,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8110000000001</v>
       </c>
     </row>
@@ -22493,7 +22702,10 @@
       <c r="A8" s="2">
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C8" s="2">
         <v>2.0089999999999999</v>
       </c>
@@ -22503,7 +22715,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.998</v>
       </c>
     </row>
@@ -22512,7 +22724,10 @@
         <f>A7+10</f>
         <v>60</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="C9" s="2">
         <v>2.1560000000000001</v>
       </c>
@@ -22520,7 +22735,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8510000000001</v>
       </c>
     </row>
@@ -22529,7 +22744,10 @@
         <f>A9+10</f>
         <v>70</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="C10" s="2">
         <v>2.194</v>
       </c>
@@ -22537,7 +22755,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8130000000001</v>
       </c>
       <c r="I10" s="5">
@@ -22547,10 +22765,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" ref="A11:A22" si="2">A10+10</f>
+        <f t="shared" ref="A11:A22" si="3">A10+10</f>
         <v>80</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
       <c r="C11" s="2">
         <v>2.2400000000000002</v>
       </c>
@@ -22558,16 +22779,19 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.7670000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="C12" s="2">
         <v>2.2250000000000001</v>
       </c>
@@ -22575,16 +22799,19 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.7820000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C13" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -22592,16 +22819,19 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.8070000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C14" s="2">
         <v>1.9450000000000001</v>
       </c>
@@ -22611,16 +22841,19 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.0619999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="C15" s="2">
         <v>2.274</v>
       </c>
@@ -22628,16 +22861,19 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.7330000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="C16" s="2">
         <v>2.052</v>
       </c>
@@ -22647,16 +22883,19 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2733.9549999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
       <c r="C17" s="2">
         <v>1.988</v>
       </c>
@@ -22664,16 +22903,19 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.0190000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="C18" s="2">
         <v>1.9610000000000001</v>
       </c>
@@ -22681,16 +22923,19 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.0460000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
       <c r="C19" s="2">
         <v>1.82</v>
       </c>
@@ -22698,16 +22943,19 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.1869999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
       <c r="C20" s="2">
         <v>1.79</v>
       </c>
@@ -22715,16 +22963,19 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.2170000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="C21" s="2">
         <v>1.7110000000000001</v>
       </c>
@@ -22732,16 +22983,19 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.2960000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
       <c r="C22" s="2">
         <v>1.613</v>
       </c>
@@ -22751,7 +23005,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2734.3940000000002</v>
       </c>
     </row>
@@ -24335,7 +24589,7 @@
         <v>2721.7620000000002</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17">
         <f>H17-G17</f>
@@ -24602,7 +24856,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24661,7 +24915,10 @@
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <f>A3/100</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="2">
         <v>2.0379999999999998</v>
       </c>
@@ -24680,7 +24937,10 @@
         <f>A3+10</f>
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B23" si="0">A4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2">
         <v>2.1070000000000002</v>
       </c>
@@ -24690,16 +24950,19 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G23" si="0">$F$2-C4</f>
+        <f t="shared" ref="G4:G23" si="1">$F$2-C4</f>
         <v>2735.4860000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A7" si="1">A4+10</f>
+        <f t="shared" ref="A5:A7" si="2">A4+10</f>
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="C5" s="2">
         <v>2.1320000000000001</v>
       </c>
@@ -24707,16 +24970,19 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4610000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>2.145</v>
       </c>
@@ -24724,16 +24990,19 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4480000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="C7" s="2">
         <v>2.1749999999999998</v>
       </c>
@@ -24743,7 +25012,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4180000000001</v>
       </c>
     </row>
@@ -24751,7 +25020,10 @@
       <c r="A8" s="2">
         <v>45</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
       <c r="C8" s="2">
         <v>2.036</v>
       </c>
@@ -24761,7 +25033,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.5570000000002</v>
       </c>
     </row>
@@ -24770,7 +25042,10 @@
         <f>A7+10</f>
         <v>50</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="C9" s="2">
         <v>2.1709999999999998</v>
       </c>
@@ -24780,7 +25055,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4220000000005</v>
       </c>
       <c r="I9">
@@ -24793,7 +25068,10 @@
         <f>A9+10</f>
         <v>60</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="C10" s="2">
         <v>2.2210000000000001</v>
       </c>
@@ -24803,7 +25081,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.3720000000003</v>
       </c>
     </row>
@@ -24811,7 +25089,10 @@
       <c r="A11" s="2">
         <v>60</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
       <c r="C11" s="2">
         <v>1.9239999999999999</v>
       </c>
@@ -24821,7 +25102,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.6690000000003</v>
       </c>
     </row>
@@ -24830,7 +25111,10 @@
         <f>A10+10</f>
         <v>70</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="C12" s="2">
         <v>2.1419999999999999</v>
       </c>
@@ -24838,7 +25122,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4510000000005</v>
       </c>
     </row>
@@ -24847,7 +25131,10 @@
         <f>A12+10</f>
         <v>80</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
       <c r="C13" s="2">
         <v>2.19</v>
       </c>
@@ -24855,7 +25142,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4030000000002</v>
       </c>
     </row>
@@ -24864,7 +25151,10 @@
         <f>A13+10</f>
         <v>90</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="C14" s="2">
         <v>2.0659999999999998</v>
       </c>
@@ -24872,16 +25162,19 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.5270000000005</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" ref="A15:A23" si="2">A14+10</f>
+        <f t="shared" ref="A15:A23" si="3">A14+10</f>
         <v>100</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="C15" s="2">
         <v>2.1259999999999999</v>
       </c>
@@ -24889,16 +25182,19 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4670000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C16" s="2">
         <v>2.1230000000000002</v>
       </c>
@@ -24906,16 +25202,19 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.4700000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
       <c r="C17" s="2">
         <v>2.0550000000000002</v>
       </c>
@@ -24925,16 +25224,19 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.5380000000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
       <c r="C18" s="2">
         <v>1.8440000000000001</v>
       </c>
@@ -24942,16 +25244,19 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.7490000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
       <c r="C19" s="2">
         <v>1.784</v>
       </c>
@@ -24959,16 +25264,19 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.8090000000002</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="C20" s="2">
         <v>1.69</v>
       </c>
@@ -24976,16 +25284,19 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.9030000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
       <c r="C21" s="2">
         <v>1.641</v>
       </c>
@@ -24993,16 +25304,19 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.9520000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
       <c r="C22" s="2">
         <v>1.595</v>
       </c>
@@ -25010,16 +25324,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.9980000000005</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="C23" s="2">
         <v>1.665</v>
       </c>
@@ -25029,7 +25346,7 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2735.9280000000003</v>
       </c>
     </row>
@@ -26501,7 +26818,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6">
         <v>2.8149999999999999</v>
@@ -26522,7 +26839,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2">
         <v>2.4449999999999998</v>
@@ -26550,7 +26867,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -26616,7 +26933,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -26714,7 +27031,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -26732,7 +27049,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -26946,7 +27263,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -27091,8 +27408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C12D5E-274C-49F4-AC1E-9E3A5CF8DFEE}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27128,7 +27445,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2">
         <v>2.4449999999999998</v>
@@ -27138,7 +27455,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2">
         <f>G2+B2</f>
@@ -27158,7 +27475,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -27352,7 +27669,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -27370,7 +27687,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -27615,8 +27932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15857BB-7009-42F0-BB33-F587ED47BBA2}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27698,7 +28015,7 @@
         <v>2737.4559999999997</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="2">
         <v>3.165</v>
@@ -27764,6 +28081,9 @@
         <f t="shared" ref="G4:G26" si="0">$F$2-C4</f>
         <v>2738.4929999999995</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>133</v>
       </c>
@@ -27795,6 +28115,9 @@
         <f t="shared" si="0"/>
         <v>2738.3429999999994</v>
       </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
       <c r="K5" s="2" t="s">
         <v>134</v>
       </c>
@@ -27826,6 +28149,10 @@
         <f t="shared" si="0"/>
         <v>2738.2829999999994</v>
       </c>
+      <c r="J6">
+        <f>K6-1</f>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="K6" s="2">
         <v>1.2</v>
       </c>
@@ -27857,6 +28184,10 @@
         <f t="shared" si="0"/>
         <v>2738.2769999999996</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J29" si="3">K7-1</f>
+        <v>0.30000000000000004</v>
+      </c>
       <c r="K7" s="2">
         <v>1.3</v>
       </c>
@@ -27890,6 +28221,10 @@
         <f t="shared" si="0"/>
         <v>2738.2569999999996</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="K8" s="2">
         <v>1.4</v>
       </c>
@@ -27924,6 +28259,10 @@
       <c r="I9" s="11" t="s">
         <v>117</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
       <c r="K9" s="2">
         <v>1.5</v>
       </c>
@@ -27959,6 +28298,10 @@
         <f>C20-C21</f>
         <v>0.248</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
       <c r="K10" s="2">
         <v>1.6</v>
       </c>
@@ -27991,6 +28334,10 @@
       <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>2738.2519999999995</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
       <c r="K11" s="2">
         <v>1.7</v>
@@ -28026,6 +28373,10 @@
       <c r="I12" s="11" t="s">
         <v>130</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
       <c r="K12" s="2">
         <v>1.8</v>
       </c>
@@ -28062,6 +28413,10 @@
       <c r="I13" s="11">
         <f>M17-M18</f>
         <v>0.19300000000000006</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="K13" s="2">
         <v>1.9</v>
@@ -28096,6 +28451,10 @@
         <f t="shared" si="0"/>
         <v>2738.4449999999993</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
@@ -28127,6 +28486,10 @@
         <f t="shared" si="0"/>
         <v>2738.4119999999994</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="K15" s="2">
         <v>2.1</v>
       </c>
@@ -28158,6 +28521,10 @@
         <f t="shared" si="0"/>
         <v>2738.3989999999994</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
       <c r="K16" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -28189,6 +28556,10 @@
         <f t="shared" si="0"/>
         <v>2738.3309999999997</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
       <c r="K17" s="2">
         <v>2.25</v>
       </c>
@@ -28222,6 +28593,10 @@
         <f t="shared" si="0"/>
         <v>2738.3119999999994</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
       <c r="K18" s="2">
         <v>2.25</v>
       </c>
@@ -28254,6 +28629,10 @@
       <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>2738.2349999999997</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998</v>
       </c>
       <c r="K19" s="2">
         <v>2.2999999999999998</v>
@@ -28288,6 +28667,10 @@
         <f t="shared" si="0"/>
         <v>2738.2259999999997</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
       <c r="K20" s="2">
         <v>2.4</v>
       </c>
@@ -28321,6 +28704,10 @@
       <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>2738.4739999999997</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="K21" s="2">
         <v>2.5</v>
@@ -28355,6 +28742,10 @@
         <f t="shared" si="0"/>
         <v>2738.2919999999995</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
       <c r="K22" s="2">
         <v>2.6</v>
       </c>
@@ -28386,6 +28777,10 @@
         <f t="shared" si="0"/>
         <v>2738.4159999999993</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000002</v>
+      </c>
       <c r="K23" s="2">
         <v>2.7</v>
       </c>
@@ -28417,6 +28812,10 @@
         <f t="shared" si="0"/>
         <v>2738.4679999999994</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
       <c r="K24" s="2">
         <v>2.8</v>
       </c>
@@ -28448,6 +28847,10 @@
         <f t="shared" si="0"/>
         <v>2738.4629999999993</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
       <c r="K25" s="2">
         <v>2.9</v>
       </c>
@@ -28483,8 +28886,12 @@
         <f t="shared" si="0"/>
         <v>2738.4569999999994</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>137</v>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2">
@@ -28504,6 +28911,10 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
       <c r="K27" s="2">
         <v>3.1</v>
       </c>
@@ -28513,7 +28924,7 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="2">
@@ -28522,6 +28933,10 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="K28" s="2">
         <v>3.2</v>
       </c>
@@ -28531,7 +28946,7 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="2">
@@ -28540,6 +28955,10 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
       <c r="K29" s="2">
         <v>3.3</v>
       </c>
@@ -28549,7 +28968,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="2">
@@ -29598,7 +30017,7 @@
         <v>2722.52</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="5">
         <f>H10-G10</f>
@@ -30396,7 +30815,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="O9" sqref="J9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30421,7 +30840,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -30463,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>3.3260000000000001</v>
       </c>
       <c r="D2" s="6"/>
@@ -30545,6 +30964,10 @@
         <f t="shared" si="0"/>
         <v>2722.5989999999997</v>
       </c>
+      <c r="J4" s="22">
+        <f>K4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="K4" s="2">
         <v>10</v>
       </c>
@@ -30578,6 +31001,10 @@
         <f t="shared" si="0"/>
         <v>2722.5309999999999</v>
       </c>
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:J24" si="3">K5/100</f>
+        <v>0.2</v>
+      </c>
       <c r="K5" s="2">
         <v>20</v>
       </c>
@@ -30609,6 +31036,10 @@
         <f t="shared" si="0"/>
         <v>2722.5299999999997</v>
       </c>
+      <c r="J6" s="22">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
       <c r="K6" s="2">
         <v>30</v>
       </c>
@@ -30640,6 +31071,10 @@
         <f t="shared" si="0"/>
         <v>2722.5149999999999</v>
       </c>
+      <c r="J7" s="22">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
       <c r="K7" s="2">
         <v>40</v>
       </c>
@@ -30671,6 +31106,10 @@
         <f t="shared" si="0"/>
         <v>2722.4839999999999</v>
       </c>
+      <c r="J8" s="22">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
       <c r="K8" s="2">
         <v>50</v>
       </c>
@@ -30702,6 +31141,10 @@
         <f t="shared" si="0"/>
         <v>2722.5140000000001</v>
       </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
       <c r="K9" s="2">
         <v>60</v>
       </c>
@@ -30720,7 +31163,7 @@
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -30739,6 +31182,10 @@
         <f t="shared" si="0"/>
         <v>2722.509</v>
       </c>
+      <c r="J10" s="22">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
       <c r="K10" s="2">
         <v>70</v>
       </c>
@@ -30779,6 +31226,10 @@
         <f t="shared" si="0"/>
         <v>2722.5009999999997</v>
       </c>
+      <c r="J11" s="22">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
       <c r="K11" s="2">
         <v>70</v>
       </c>
@@ -30811,6 +31262,10 @@
       <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>2722.0859999999998</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
       <c r="K12" s="2">
         <v>80</v>
@@ -30843,6 +31298,10 @@
       <c r="I13" s="11" t="s">
         <v>116</v>
       </c>
+      <c r="J13" s="22">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
       <c r="K13" s="2">
         <v>90</v>
       </c>
@@ -30880,6 +31339,10 @@
         <f>G15-G14</f>
         <v>0.13900000000012369</v>
       </c>
+      <c r="J14" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="K14" s="2">
         <v>100</v>
       </c>
@@ -30909,8 +31372,12 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G31" si="3">$F$2-C15</f>
+        <f t="shared" ref="G15:G31" si="4">$F$2-C15</f>
         <v>2722.652</v>
+      </c>
+      <c r="J15" s="22">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K15" s="2">
         <v>110</v>
@@ -30940,11 +31407,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.49</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>130</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
       </c>
       <c r="K16" s="2">
         <v>120</v>
@@ -30963,7 +31434,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" ref="A17:A31" si="4">A16+10</f>
+        <f t="shared" ref="A17:A31" si="5">A16+10</f>
         <v>140</v>
       </c>
       <c r="B17" s="2"/>
@@ -30974,12 +31445,16 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.491</v>
       </c>
       <c r="I17" s="11">
         <f>M10-M11</f>
         <v>0.19399999999999995</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
       </c>
       <c r="K17" s="2">
         <v>130</v>
@@ -31000,7 +31475,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B18" s="2"/>
@@ -31011,8 +31486,12 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.502</v>
+      </c>
+      <c r="J18" s="22">
         <f t="shared" si="3"/>
-        <v>2722.502</v>
+        <v>1.4</v>
       </c>
       <c r="K18" s="2">
         <v>140</v>
@@ -31031,7 +31510,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B19" s="2"/>
@@ -31042,8 +31521,12 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.5299999999997</v>
+      </c>
+      <c r="J19" s="22">
         <f t="shared" si="3"/>
-        <v>2722.5299999999997</v>
+        <v>1.5</v>
       </c>
       <c r="K19" s="2">
         <v>150</v>
@@ -31062,7 +31545,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B20" s="2"/>
@@ -31075,8 +31558,12 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.5319999999997</v>
+      </c>
+      <c r="J20" s="22">
         <f t="shared" si="3"/>
-        <v>2722.5319999999997</v>
+        <v>1.6</v>
       </c>
       <c r="K20" s="2">
         <v>160</v>
@@ -31095,7 +31582,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B21" s="2"/>
@@ -31106,8 +31593,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.558</v>
+      </c>
+      <c r="J21" s="22">
         <f t="shared" si="3"/>
-        <v>2722.558</v>
+        <v>1.7</v>
       </c>
       <c r="K21" s="2">
         <v>170</v>
@@ -31126,7 +31617,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B22" s="2"/>
@@ -31137,8 +31628,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.5569999999998</v>
+      </c>
+      <c r="J22" s="22">
         <f t="shared" si="3"/>
-        <v>2722.5569999999998</v>
+        <v>1.8</v>
       </c>
       <c r="K22" s="2">
         <v>180</v>
@@ -31157,7 +31652,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="B23" s="2"/>
@@ -31168,8 +31663,12 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.5909999999999</v>
+      </c>
+      <c r="J23" s="22">
         <f t="shared" si="3"/>
-        <v>2722.5909999999999</v>
+        <v>1.9</v>
       </c>
       <c r="K23" s="2">
         <v>190</v>
@@ -31188,7 +31687,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="B24" s="2"/>
@@ -31199,8 +31698,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.5720000000001</v>
+      </c>
+      <c r="J24" s="22">
         <f t="shared" si="3"/>
-        <v>2722.5720000000001</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2">
         <v>200</v>
@@ -31219,7 +31722,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="B25" s="2"/>
@@ -31230,13 +31733,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="B26" s="2"/>
@@ -31247,7 +31750,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.5949999999998</v>
       </c>
       <c r="K26" s="24" t="s">
@@ -31262,7 +31765,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="B27" s="2"/>
@@ -31273,14 +31776,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.605</v>
       </c>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="B28" s="2"/>
@@ -31293,14 +31796,14 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.8269999999998</v>
       </c>
       <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B29" s="2"/>
@@ -31311,14 +31814,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.8319999999999</v>
       </c>
       <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B30" s="2"/>
@@ -31329,14 +31832,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.8669999999997</v>
       </c>
       <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B31" s="2"/>
@@ -31349,7 +31852,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2722.9139999999998</v>
       </c>
     </row>
@@ -31389,7 +31892,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -32163,7 +32666,7 @@
         <v>2723.0129999999999</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -32599,7 +33102,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32695,7 +33198,10 @@
         <f>A3+10</f>
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>A4/100</f>
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2">
         <v>2.5390000000000001</v>
       </c>
@@ -32718,7 +33224,10 @@
         <f t="shared" ref="A5:A11" si="1">A4+10</f>
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B25" si="2">A5/100</f>
+        <v>0.2</v>
+      </c>
       <c r="C5" s="2">
         <v>2.597</v>
       </c>
@@ -32743,7 +33252,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
       <c r="C6" s="2">
         <v>2.6379999999999999</v>
       </c>
@@ -32766,7 +33278,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
       <c r="C7" s="2">
         <v>2.6339999999999999</v>
       </c>
@@ -32789,7 +33304,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="C8" s="2">
         <v>2.645</v>
       </c>
@@ -32812,7 +33330,10 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
       <c r="C9" s="2">
         <v>2.6549999999999998</v>
       </c>
@@ -32839,7 +33360,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
       <c r="C10" s="2">
         <v>2.6560000000000001</v>
       </c>
@@ -32858,7 +33382,7 @@
         <v>2.5390000000000001</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10:T31" si="2">$U$3-S10</f>
+        <f t="shared" ref="T10:T31" si="3">$U$3-S10</f>
         <v>7.4610000000000003</v>
       </c>
     </row>
@@ -32867,7 +33391,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
       <c r="C11" s="2">
         <v>2.649</v>
       </c>
@@ -32888,14 +33415,14 @@
         <v>3.9999999989959178E-3</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11:R17" si="3">R10+10</f>
+        <f t="shared" ref="R11:R17" si="4">R10+10</f>
         <v>20</v>
       </c>
       <c r="S11" s="2">
         <v>2.597</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4030000000000005</v>
       </c>
     </row>
@@ -32903,7 +33430,10 @@
       <c r="A12" s="2">
         <v>80</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
       <c r="C12" s="2">
         <v>2.4449999999999998</v>
       </c>
@@ -32917,14 +33447,14 @@
         <v>2723.3890000000001</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="S12" s="2">
         <v>2.6379999999999999</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3620000000000001</v>
       </c>
     </row>
@@ -32933,63 +33463,72 @@
         <f>A11+10</f>
         <v>90</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
       <c r="C13" s="2">
-        <v>2.5369999999999999</v>
+        <v>2.637</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>2723.2970000000005</v>
+        <v>2723.1970000000001</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="S13" s="2">
         <v>2.6339999999999999</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3659999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" ref="A14:A26" si="4">A13+10</f>
+        <f t="shared" ref="A14:A26" si="5">A13+10</f>
         <v>100</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
-        <v>2.5750000000000002</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>2723.2590000000005</v>
+        <v>2723.1590000000001</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="S14" s="2">
         <v>2.645</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3550000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
       <c r="C15" s="2">
         <v>2.6709999999999998</v>
       </c>
@@ -33001,23 +33540,26 @@
         <v>2723.1630000000005</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="S15" s="2">
         <v>2.6549999999999998</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3450000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
       <c r="C16" s="2">
         <v>2.6360000000000001</v>
       </c>
@@ -33029,23 +33571,26 @@
         <v>2723.1980000000003</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S16" s="2">
         <v>2.6560000000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3439999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
       <c r="C17" s="2">
         <v>2.6139999999999999</v>
       </c>
@@ -33057,23 +33602,26 @@
         <v>2723.2200000000003</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="S17" s="2">
         <v>2.649</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.351</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
       <c r="C18" s="2">
         <v>2.653</v>
       </c>
@@ -33092,16 +33640,19 @@
         <v>2.5369999999999999</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4630000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="C19" s="2">
         <v>2.609</v>
       </c>
@@ -33113,23 +33664,26 @@
         <v>2723.2250000000004</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19:R31" si="5">R18+10</f>
+        <f t="shared" ref="R19:R31" si="6">R18+10</f>
         <v>100</v>
       </c>
       <c r="S19" s="2">
         <v>2.5750000000000002</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4249999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
       <c r="C20" s="2">
         <v>2.6139999999999999</v>
       </c>
@@ -33141,23 +33695,26 @@
         <v>2723.2200000000003</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="S20" s="2">
         <v>2.6709999999999998</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3290000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
       <c r="C21" s="2">
         <v>2.5840000000000001</v>
       </c>
@@ -33171,23 +33728,26 @@
         <v>2723.2500000000005</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="S21" s="2">
         <v>2.6360000000000001</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3639999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
       <c r="C22" s="2">
         <v>2.4889999999999999</v>
       </c>
@@ -33202,23 +33762,26 @@
         <v>117</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="S22" s="2">
         <v>2.6139999999999999</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3860000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
       <c r="C23" s="2">
         <v>2.4580000000000002</v>
       </c>
@@ -33234,23 +33797,26 @@
         <v>0.20400000000000018</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="S23" s="2">
         <v>2.653</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3469999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="C24" s="2">
         <v>2.3969999999999998</v>
       </c>
@@ -33262,23 +33828,26 @@
         <v>2723.4370000000004</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="S24" s="2">
         <v>2.609</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.391</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
       <c r="C25" s="2">
         <v>2.2829999999999999</v>
       </c>
@@ -33290,23 +33859,26 @@
         <v>2723.5510000000004</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="S25" s="2">
         <v>2.6139999999999999</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3860000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2">
+        <f>A26/100</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="C26" s="2">
         <v>2.1840000000000002</v>
       </c>
@@ -33320,79 +33892,79 @@
         <v>2723.65</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="S26" s="2">
         <v>2.5840000000000001</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4160000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="S27" s="2">
         <v>2.4889999999999999</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5110000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="S28" s="2">
         <v>2.4580000000000002</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5419999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="S29" s="2">
         <v>2.3969999999999998</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6029999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="S30" s="2">
         <v>2.2829999999999999</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7170000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
       <c r="S31" s="2">
         <v>2.1840000000000002</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8159999999999998</v>
       </c>
     </row>

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3082D-E847-4C25-AD8B-4B69B0E1B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1F22C1-07B0-406B-A853-BF594DA55365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24135" yWindow="315" windowWidth="22260" windowHeight="14940" tabRatio="804" firstSheet="12" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" tabRatio="804" firstSheet="9" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="167">
   <si>
     <t>Distance</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>top piezo 6 c</t>
+  </si>
+  <si>
+    <t>avg t probe layer depth</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -19468,7 +19474,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19773,6 +19779,10 @@
         <f t="shared" si="0"/>
         <v>2724.7089999999998</v>
       </c>
+      <c r="I14">
+        <f>0.4-I12</f>
+        <v>0.17499999999999993</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -20098,7 +20108,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="B3:B8 B10:B24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20415,6 +20425,10 @@
       <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>2725.143</v>
+      </c>
+      <c r="I14">
+        <f>0.4-I12</f>
+        <v>0.16600000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -21975,10 +21989,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FEB0-1102-4DB7-BB00-AF8A05932E4C}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21989,7 +22003,7 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -22012,7 +22026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>144</v>
       </c>
@@ -22032,7 +22046,7 @@
         <v>2733.5149999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -22057,7 +22071,7 @@
         <v>1.7450000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -22083,7 +22097,7 @@
         <v>1.7400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A11" si="2">A4+10</f>
         <v>20</v>
@@ -22105,7 +22119,7 @@
         <v>2733.66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -22129,7 +22143,7 @@
         <v>1.9540000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -22153,7 +22167,7 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -22180,7 +22194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -22208,7 +22222,7 @@
         <v>0.11900000000000022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -22232,7 +22246,7 @@
         <v>1.8839999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -22258,7 +22272,7 @@
         <v>1.9140000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>80</v>
       </c>
@@ -22283,7 +22297,7 @@
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>A11+10</f>
         <v>90</v>
@@ -22307,7 +22321,7 @@
         <v>1.976</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A22" si="4">A13+10</f>
         <v>100</v>
@@ -22330,8 +22344,12 @@
         <f t="shared" si="1"/>
         <v>2.0259999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>0.4-I9</f>
+        <v>0.28099999999999981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>110</v>
@@ -22355,7 +22373,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -22537,7 +22555,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="B2:B7 B9:B22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22801,6 +22819,10 @@
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>2733.7820000000002</v>
+      </c>
+      <c r="I12">
+        <f>0.4-I10</f>
+        <v>0.21299999999999975</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -24856,7 +24878,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25104,6 +25126,10 @@
       <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>2735.6690000000003</v>
+      </c>
+      <c r="I11">
+        <f>0.4-I9</f>
+        <v>0.10299999999999987</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -27930,10 +27956,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15857BB-7009-42F0-BB33-F587ED47BBA2}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28521,6 +28547,10 @@
         <f t="shared" si="0"/>
         <v>2738.3989999999994</v>
       </c>
+      <c r="I16">
+        <f>0.4-I13</f>
+        <v>0.20699999999999996</v>
+      </c>
       <c r="J16">
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
@@ -28983,6 +29013,28 @@
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="20">
+        <f>AVERAGE(20.6,19.6,17.5,28.1,21.3,10.3,20.7)</f>
+        <v>19.728571428571428</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="20">
+        <f>MEDIAN(20.6,19.6,17.5,28.1,21.3,10.3,20.7)</f>
+        <v>20.6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30815,7 +30867,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="J9:O9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31523,6 +31575,10 @@
       <c r="G19" s="6">
         <f t="shared" si="4"/>
         <v>2722.5299999999997</v>
+      </c>
+      <c r="I19">
+        <f>0.4-I17</f>
+        <v>0.20600000000000007</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="3"/>
@@ -33102,7 +33158,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33890,6 +33946,10 @@
       <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>2723.65</v>
+      </c>
+      <c r="J26">
+        <f>0.4-J23</f>
+        <v>0.19599999999999984</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="6"/>

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1F22C1-07B0-406B-A853-BF594DA55365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685CE9E7-CAB2-4469-AAF1-95AB19FF39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" tabRatio="804" firstSheet="9" activeTab="24" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="804" firstSheet="9" activeTab="9" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="168">
   <si>
     <t>Distance</t>
   </si>
@@ -560,6 +560,9 @@
   <si>
     <t>median</t>
   </si>
+  <si>
+    <t>GW distance from channel</t>
+  </si>
 </sst>
 </file>
 
@@ -732,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,9 +792,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -887,7 +887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1277,7 +1277,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680724640"/>
@@ -1339,7 +1339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680722144"/>
@@ -1387,7 +1387,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1919,7 +1919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568800591"/>
@@ -1981,7 +1981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015223983"/>
@@ -2029,7 +2029,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2492,7 +2492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="583681535"/>
@@ -2554,7 +2554,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811039471"/>
@@ -2602,7 +2602,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3158,7 +3158,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701696767"/>
@@ -3220,7 +3220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869339711"/>
@@ -3268,7 +3268,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3815,7 +3815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584295391"/>
@@ -3877,7 +3877,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869286815"/>
@@ -3925,7 +3925,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3976,7 +3976,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4279,7 +4279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949856"/>
@@ -4341,7 +4341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949024"/>
@@ -4389,7 +4389,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5005,7 +5005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043194127"/>
@@ -5067,7 +5067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015234655"/>
@@ -5115,7 +5115,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5764,7 +5764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1810760255"/>
@@ -5826,7 +5826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811056175"/>
@@ -5874,7 +5874,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6405,7 +6405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993662911"/>
@@ -6467,7 +6467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811060815"/>
@@ -6515,7 +6515,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6890,7 +6890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273530959"/>
@@ -6953,7 +6953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273528463"/>
@@ -7001,7 +7001,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7052,7 +7052,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7470,7 +7470,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1946070992"/>
@@ -7532,7 +7532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1645237152"/>
@@ -7580,7 +7580,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8238,7 +8238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1988108927"/>
@@ -8300,7 +8300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811050607"/>
@@ -8348,7 +8348,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8859,7 +8859,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008535167"/>
@@ -8921,7 +8921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811067311"/>
@@ -8969,7 +8969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16254,15 +16254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>516255</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16295,15 +16295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>392431</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>116204</xdr:rowOff>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>203836</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>87631</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16377,15 +16377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>337185</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16885,9 +16885,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16925,7 +16925,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -17031,7 +17031,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17173,7 +17173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17801,8 +17801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BCDB23-7E29-4E96-BC9F-97898B9633F1}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17839,6 +17839,9 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -17858,6 +17861,10 @@
       <c r="G2" s="6">
         <f>$F$2-C2</f>
         <v>2724.1630000000005</v>
+      </c>
+      <c r="I2">
+        <f>A35-A7</f>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -20645,7 +20652,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20657,7 +20664,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -20679,8 +20686,11 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -20702,8 +20712,12 @@
         <f>2727.757-D2</f>
         <v>2727.5860000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>A33-A17</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -20724,7 +20738,7 @@
         <v>2730.6360000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -20745,7 +20759,7 @@
         <v>2732.5620000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -20766,7 +20780,7 @@
         <v>2733.5230000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -20787,7 +20801,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>A6+10</f>
         <v>10</v>
@@ -20810,7 +20824,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A31" si="1">A7+10</f>
         <v>20</v>
@@ -20830,7 +20844,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -20850,7 +20864,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -20870,7 +20884,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20890,7 +20904,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20910,7 +20924,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20930,7 +20944,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20950,7 +20964,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20970,7 +20984,7 @@
         <v>2732.9305000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -23041,7 +23055,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23053,7 +23067,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -23075,8 +23089,11 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>86</v>
       </c>
@@ -23098,8 +23115,12 @@
         <f>2736.007-D2</f>
         <v>2734.7739999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>A11- A20</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -23117,7 +23138,7 @@
         <v>2734.8239999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>A3+10</f>
         <v>10</v>
@@ -23134,7 +23155,7 @@
         <v>2734.8089999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A10" si="1">A4+10</f>
         <v>20</v>
@@ -23151,7 +23172,7 @@
         <v>2734.8419999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -23168,7 +23189,7 @@
         <v>2734.7749999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -23185,7 +23206,7 @@
         <v>2734.7709999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -23202,7 +23223,7 @@
         <v>2734.7369999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -23219,7 +23240,7 @@
         <v>2734.7049999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -23238,7 +23259,7 @@
         <v>2734.6659999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>70</v>
       </c>
@@ -23256,7 +23277,7 @@
         <v>2734.7939999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A10+10</f>
         <v>80</v>
@@ -23273,7 +23294,7 @@
         <v>2734.5979999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" ref="A13:A29" si="2">A12+10</f>
         <v>90</v>
@@ -23290,7 +23311,7 @@
         <v>2734.5749999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -23307,7 +23328,7 @@
         <v>2734.5349999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -23324,7 +23345,7 @@
         <v>2734.5099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -23750,7 +23771,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23761,7 +23782,7 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -23783,8 +23804,11 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -23803,8 +23827,12 @@
         <f>$F$2-C2</f>
         <v>2734.2670000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>A21- A33</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -23821,7 +23849,7 @@
         <v>2734.261</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A21" si="1">A3+10</f>
         <v>20</v>
@@ -23838,7 +23866,7 @@
         <v>2734.2240000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -23860,7 +23888,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -23880,7 +23908,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -23900,7 +23928,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -23920,7 +23948,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -23940,7 +23968,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -23960,7 +23988,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -23980,7 +24008,7 @@
         <v>2734.2060000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -23999,7 +24027,7 @@
         <v>2734.3740000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -24016,7 +24044,7 @@
         <v>2734.431</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -24032,7 +24060,7 @@
         <v>2734.46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -24051,7 +24079,7 @@
         <v>2734.3879999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -25386,7 +25414,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25397,7 +25425,7 @@
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -25419,8 +25447,11 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -25439,8 +25470,12 @@
         <f>$F$2-C2</f>
         <v>2736.3030000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>A22- A32</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -25457,7 +25492,7 @@
         <v>2736.1690000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A35" si="1">A3+10</f>
         <v>20</v>
@@ -25474,7 +25509,7 @@
         <v>2736.1770000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -25491,7 +25526,7 @@
         <v>2736.1330000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -25508,7 +25543,7 @@
         <v>2736.1220000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -25525,7 +25560,7 @@
         <v>2736.1160000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -25547,7 +25582,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -25566,7 +25601,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -25586,7 +25621,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -25606,7 +25641,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -25626,7 +25661,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -25646,7 +25681,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -25666,7 +25701,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -25686,7 +25721,7 @@
         <v>2736.1170000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -26069,7 +26104,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26081,7 +26116,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -26103,8 +26138,11 @@
       <c r="G1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -26123,8 +26161,12 @@
         <f>$F$2-C2</f>
         <v>2736.7369999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>A7- A19</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+10</f>
         <v>10</v>
@@ -26141,7 +26183,7 @@
         <v>2736.7269999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A6" si="1">A3+10</f>
         <v>20</v>
@@ -26158,7 +26200,7 @@
         <v>2736.7179999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -26175,7 +26217,7 @@
         <v>2736.6589999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -26194,7 +26236,7 @@
         <v>2736.4929999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40</v>
       </c>
@@ -26212,7 +26254,7 @@
         <v>2736.6469999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A6+10</f>
         <v>50</v>
@@ -26229,7 +26271,7 @@
         <v>2736.393</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8+10</f>
         <v>60</v>
@@ -26246,7 +26288,7 @@
         <v>2736.4089999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>A9+10</f>
         <v>70</v>
@@ -26263,7 +26305,7 @@
         <v>2736.4249999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A36" si="2">A10+10</f>
         <v>80</v>
@@ -26280,7 +26322,7 @@
         <v>2736.4690000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -26297,7 +26339,7 @@
         <v>2736.4769999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -26314,7 +26356,7 @@
         <v>2736.5360000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -26331,7 +26373,7 @@
         <v>2736.529</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -26348,7 +26390,7 @@
         <v>2736.5349999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -27958,8 +28000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15857BB-7009-42F0-BB33-F587ED47BBA2}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28936,11 +28978,11 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="J27">
         <f t="shared" si="3"/>
         <v>2.1</v>
@@ -29007,12 +29049,12 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L30" s="24" t="s">
+      <c r="L30" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
@@ -29049,8 +29091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278C6A75-EB2C-4F06-8258-6CEC79F84880}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29375,7 +29417,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -29395,7 +29437,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -29415,7 +29457,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -29437,7 +29479,7 @@
         <v>2721.9399999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -29454,7 +29496,7 @@
         <v>2721.9809999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -29471,7 +29513,7 @@
         <v>2721.9959999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -29488,7 +29530,7 @@
         <v>2721.9899999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>210</v>
@@ -29509,7 +29551,7 @@
         <v>0.19700000000011642</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -29526,7 +29568,7 @@
         <v>2722.0969999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>230</v>
@@ -29543,7 +29585,7 @@
         <v>2722.0819999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>240</v>
@@ -29560,7 +29602,7 @@
         <v>2722.0889999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -29577,7 +29619,7 @@
         <v>2722.1809999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>A27+10</f>
         <v>260</v>
@@ -29594,7 +29636,7 @@
         <v>2722.1719999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -29611,7 +29653,7 @@
         <v>2722.1869999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -29628,7 +29670,7 @@
         <v>2722.1859999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -29645,7 +29687,7 @@
         <v>2722.1749999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -29661,6 +29703,9 @@
         <f t="shared" si="0"/>
         <v>2722.1769999999997</v>
       </c>
+      <c r="J32" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -29677,6 +29722,10 @@
       <c r="G33" s="6">
         <f t="shared" si="0"/>
         <v>2722.1909999999993</v>
+      </c>
+      <c r="J33">
+        <f>A37-A19</f>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -29871,8 +29920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF970D2A-25F7-43D8-9437-28DE93019D3F}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30182,7 +30231,7 @@
         <v>2722.4209999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -30199,7 +30248,7 @@
         <v>2722.4299999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -30216,7 +30265,7 @@
         <v>2722.4159999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -30232,8 +30281,11 @@
         <f t="shared" si="0"/>
         <v>2722.4199999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -30249,8 +30301,12 @@
         <f t="shared" si="0"/>
         <v>2722.4179999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>A33-A10</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -30267,7 +30323,7 @@
         <v>2722.4109999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -30284,7 +30340,7 @@
         <v>2722.4189999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -30301,7 +30357,7 @@
         <v>2722.4269999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -30318,7 +30374,7 @@
         <v>2722.4169999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -30335,7 +30391,7 @@
         <v>2722.3849999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -30352,7 +30408,7 @@
         <v>2722.3639999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -30369,7 +30425,7 @@
         <v>2722.3919999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -30386,7 +30442,7 @@
         <v>2722.3609999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -30403,7 +30459,7 @@
         <v>2722.3389999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -30420,7 +30476,7 @@
         <v>2722.3169999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -30437,7 +30493,7 @@
         <v>2722.3099999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -31016,7 +31072,7 @@
         <f t="shared" si="0"/>
         <v>2722.5989999999997</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="5">
         <f>K4/100</f>
         <v>0.1</v>
       </c>
@@ -31053,7 +31109,7 @@
         <f t="shared" si="0"/>
         <v>2722.5309999999999</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="5">
         <f t="shared" ref="J5:J24" si="3">K5/100</f>
         <v>0.2</v>
       </c>
@@ -31088,7 +31144,7 @@
         <f t="shared" si="0"/>
         <v>2722.5299999999997</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -31123,7 +31179,7 @@
         <f t="shared" si="0"/>
         <v>2722.5149999999999</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -31158,7 +31214,7 @@
         <f t="shared" si="0"/>
         <v>2722.4839999999999</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -31193,7 +31249,7 @@
         <f t="shared" si="0"/>
         <v>2722.5140000000001</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
@@ -31234,7 +31290,7 @@
         <f t="shared" si="0"/>
         <v>2722.509</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
@@ -31278,7 +31334,7 @@
         <f t="shared" si="0"/>
         <v>2722.5009999999997</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
@@ -31315,7 +31371,7 @@
         <f t="shared" si="0"/>
         <v>2722.0859999999998</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="5">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
@@ -31350,7 +31406,7 @@
       <c r="I13" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -31391,7 +31447,7 @@
         <f>G15-G14</f>
         <v>0.13900000000012369</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -31427,7 +31483,7 @@
         <f t="shared" ref="G15:G31" si="4">$F$2-C15</f>
         <v>2722.652</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
@@ -31465,7 +31521,7 @@
       <c r="I16" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
@@ -31504,7 +31560,7 @@
         <f>M10-M11</f>
         <v>0.19399999999999995</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
@@ -31541,7 +31597,7 @@
         <f t="shared" si="4"/>
         <v>2722.502</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
@@ -31580,7 +31636,7 @@
         <f>0.4-I17</f>
         <v>0.20600000000000007</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
@@ -31617,7 +31673,7 @@
         <f t="shared" si="4"/>
         <v>2722.5319999999997</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
@@ -31652,7 +31708,7 @@
         <f t="shared" si="4"/>
         <v>2722.558</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
@@ -31687,7 +31743,7 @@
         <f t="shared" si="4"/>
         <v>2722.5569999999998</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
@@ -31722,7 +31778,7 @@
         <f t="shared" si="4"/>
         <v>2722.5909999999999</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
@@ -31757,7 +31813,7 @@
         <f t="shared" si="4"/>
         <v>2722.5720000000001</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -31809,13 +31865,13 @@
         <f t="shared" si="4"/>
         <v>2722.5949999999998</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="23" t="s">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -31835,7 +31891,7 @@
         <f t="shared" si="4"/>
         <v>2722.605</v>
       </c>
-      <c r="O27" s="23"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -31855,7 +31911,7 @@
         <f t="shared" si="4"/>
         <v>2722.8269999999998</v>
       </c>
-      <c r="O28" s="23"/>
+      <c r="O28" s="22"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -31873,7 +31929,7 @@
         <f t="shared" si="4"/>
         <v>2722.8319999999999</v>
       </c>
-      <c r="O29" s="23"/>
+      <c r="O29" s="22"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -31891,7 +31947,7 @@
         <f t="shared" si="4"/>
         <v>2722.8669999999997</v>
       </c>
-      <c r="O30" s="23"/>
+      <c r="O30" s="22"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -31913,11 +31969,11 @@
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31934,7 +31990,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31988,6 +32044,9 @@
         <f>$F$2-C2</f>
         <v>2722.9960000000001</v>
       </c>
+      <c r="I2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -32004,6 +32063,10 @@
       <c r="G3" s="6">
         <f t="shared" ref="G3:G32" si="0">$F$2-C3</f>
         <v>2722.9549999999999</v>
+      </c>
+      <c r="I3">
+        <f>A26-A16</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
+++ b/Topography/LaJara_TopoSurvey/LaJara_XS_Topography .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685CE9E7-CAB2-4469-AAF1-95AB19FF39F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E028F04-81A2-4210-B36D-9C7787A723AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="804" firstSheet="9" activeTab="9" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" tabRatio="804" firstSheet="9" activeTab="23" xr2:uid="{24083E57-F3BF-4A8D-A2E4-8E86074BFB86}"/>
   </bookViews>
   <sheets>
     <sheet name="Piezo 1" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1277,7 +1277,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680724640"/>
@@ -1339,7 +1339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1680722144"/>
@@ -1387,7 +1387,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1399,6 +1399,1595 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Piezo 3'!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Piezo 3'!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2724.259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2724.2190000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2724.1489999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2724.0989999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2724.0899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2724.0879999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2724.0149999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2724.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2724.058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2724.0969999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2724.1289999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2724.1549999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2724.1689999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2724.1789999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2724.1789999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2724.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2724.2059999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2724.152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2724.192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2724.2179999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2724.203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2724.2219999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2724.2269999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2724.2579999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2724.2669999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2724.2689999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2724.3249999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2724.3829999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2724.5439999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2724.5899999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2724.636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2724.8689999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2724.944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E5A-4576-A33B-0143976667BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717869216"/>
+        <c:axId val="1717866336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717869216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717866336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717866336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717869216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TOPO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GW5'!$A$6:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GW5'!$G$6:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2732.9880000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2732.9150000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2732.8640000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2732.9250000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2732.9140000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2732.9600000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2732.9410000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.8950000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2732.9100000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2732.8910000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2732.9370000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2732.9460000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2732.9720000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2733.0070000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2732.9470000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2732.9840000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2732.9940000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2733.0050000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2733.0700000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2733.1000000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2733.2050000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2733.4050000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2733.4940000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2733.5100000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2733.3740000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2733.3750000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2733.3830000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2733.5150000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2733.4050000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2733.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2733.3950000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2733.3930000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2733.3860000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-473D-409C-8486-1C7E562B913E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GW5'!$A$7:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GW5'!$H$6:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2732.9305000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-473D-409C-8486-1C7E562B913E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GW5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GW5'!$A$32:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GW5'!$G$32:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2733.3830000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2733.5150000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-473D-409C-8486-1C7E562B913E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1811067311"/>
+        <c:axId val="2008535167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1811067311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008535167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2008535167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811067311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Piezo 4'!$A$3:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Piezo 4'!$G$3:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2733.7549999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2733.7949999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2733.8609999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2733.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2733.7749999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2733.6549999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2733.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2733.2249999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2733.0449999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2733.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2733.0049999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2732.9649999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2732.9199999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2732.9249999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2732.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2732.8399999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2732.8649999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2732.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2732.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2733.0699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2733.0749999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2733.1049999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2733.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2733.1699999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2733.2549999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2733.4349999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2733.5749999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2733.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2733.5519999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2733.4979999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2733.4749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A3F-4BA3-BBEF-FFBF29A80FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717886976"/>
+        <c:axId val="1717874976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717886976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717874976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717874976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717886976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1919,7 +3508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1568800591"/>
@@ -1981,7 +3570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015223983"/>
@@ -2029,7 +3618,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2040,7 +3629,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2492,7 +4081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="583681535"/>
@@ -2554,7 +4143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811039471"/>
@@ -2602,7 +4191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2613,7 +4202,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3158,7 +4747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701696767"/>
@@ -3220,7 +4809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869339711"/>
@@ -3268,7 +4857,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3279,7 +4868,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3815,7 +5404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584295391"/>
@@ -3877,7 +5466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869286815"/>
@@ -3925,7 +5514,461 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Piezo6!$A$3:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Piezo6!$G$3:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2737.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2737.8500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2737.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2737.5780000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2737.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2737.5350000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2737.5450000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2737.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2737.2050000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2737.2900000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2737.2550000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2737.2450000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2737.2450000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2737.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2737.2650000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2737.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2737.2200000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2737.2510000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2737.4050000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2737.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2737.4420000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2737.4050000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2737.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2737.5150000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2737.6550000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2738.0650000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2738.085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD4A-4F19-B718-BB341968237C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1717864896"/>
+        <c:axId val="1717863456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1717864896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717863456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717863456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717864896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3976,7 +6019,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4279,7 +6322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949856"/>
@@ -4341,7 +6384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1753949024"/>
@@ -4389,7 +6432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5005,7 +7048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2043194127"/>
@@ -5067,7 +7110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2015234655"/>
@@ -5115,7 +7158,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5764,7 +7807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1810760255"/>
@@ -5826,7 +7869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811056175"/>
@@ -5874,7 +7917,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6405,7 +8448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993662911"/>
@@ -6467,7 +8510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811060815"/>
@@ -6515,7 +8558,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6527,6 +8570,478 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Piezo 2'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Piezo 2'!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2723.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2723.2060000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2723.1659999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2723.0879999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2723.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2723.0149999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2723.0129999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2722.9949999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2723.0430000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2723.0340000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2723.0329999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2723.047</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2723.0839999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2723.0699999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2723.085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2723.0830000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2723.1459999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2723.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2723.1169999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2723.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2723.136</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2723.1459999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2723.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2723.1109999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2723.116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2723.2159999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2723.3359999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2723.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2723.3919999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2723.3969999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2455-4BC5-A0EA-D31A68692C02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1578456528"/>
+        <c:axId val="1578460368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1578456528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578460368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1578460368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578456528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6890,7 +9405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273530959"/>
@@ -6953,7 +9468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273528463"/>
@@ -7001,7 +9516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7012,7 +9527,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7052,7 +9567,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7470,7 +9985,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1946070992"/>
@@ -7532,7 +10047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1645237152"/>
@@ -7580,7 +10095,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7591,7 +10106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8238,7 +10753,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1988108927"/>
@@ -8300,7 +10815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1811050607"/>
@@ -8348,628 +10863,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TOPO</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'GW5'!$A$6:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GW5'!$G$6:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>2732.9880000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2732.9150000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2732.8640000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2732.9250000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2732.9140000000007</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2732.9600000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2732.9410000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2732.8950000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2732.9100000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2732.8910000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2732.9370000000008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2732.9460000000008</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2732.9720000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2733.0070000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2732.9470000000006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2732.9840000000008</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2732.9940000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2733.0050000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2733.0700000000006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2733.1000000000008</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2733.2050000000008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2733.4050000000007</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2733.4940000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2733.5100000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2733.3740000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2733.3750000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2733.3830000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2733.5150000000008</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2733.4050000000007</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2733.4000000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2733.3950000000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2733.3930000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2733.3860000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-473D-409C-8486-1C7E562B913E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>edge</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'GW5'!$A$7:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GW5'!$H$6:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2732.9305000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-473D-409C-8486-1C7E562B913E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>GW5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'GW5'!$A$32:$A$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GW5'!$G$32:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2733.3830000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2733.5150000000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-473D-409C-8486-1C7E562B913E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1811067311"/>
-        <c:axId val="2008535167"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1811067311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2008535167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2008535167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1811067311"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9141,6 +11035,166 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12080,6 +14134,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -16253,6 +20371,129 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC7E79A-601B-7848-466F-8F5C0884E8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DCBD59-EF27-6BEC-09BC-A0B6390851E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01159C0-0461-84AB-9DF8-79728DA05211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>573405</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -16290,7 +20531,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16331,7 +20572,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16372,7 +20613,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16393,6 +20634,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD42998-9AA4-0CED-0A8A-2EB5CBB66F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0CD47E-B69F-F603-6FD4-56A33FE00FBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16581,6 +20863,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0888775-0A42-A612-6B27-41B614C1CC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139513</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -16618,7 +20941,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16802,7 +21125,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16823,47 +21146,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A5430E-0009-FA40-69B2-1F7D3BAD0493}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DCBD59-EF27-6BEC-09BC-A0B6390851E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17801,7 +22083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BCDB23-7E29-4E96-BC9F-97898B9633F1}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -18837,7 +23119,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19020,10 +23302,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>2724.4879999999998</v>
-      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -19473,6 +23752,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21405,7 +25685,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21785,13 +26065,10 @@
         <v>151</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>2733.4199999999996</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22">
         <f>G22-G21</f>
-        <v>0.46999999999979991</v>
+        <v>-2732.95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -21998,6 +26275,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26849,7 +31127,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27476,8 +31754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C12D5E-274C-49F4-AC1E-9E3A5CF8DFEE}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27758,13 +32036,10 @@
         <v>164</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>2737.7200000000003</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16">
         <f>G16-G15</f>
-        <v>0.47499999999990905</v>
+        <v>-2737.2450000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -27993,6 +32268,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32627,7 +36903,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32828,10 +37104,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>2723.4059999999999</v>
-      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -33213,6 +37486,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
